--- a/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,19 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">肺结核</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -403,31 +415,43 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93931.4318749212</v>
+        <v>93701.8002651462</v>
       </c>
       <c r="C2" t="n">
-        <v>86503.6388851971</v>
+        <v>86453.1375298367</v>
       </c>
       <c r="D2" t="n">
-        <v>84164.995267861</v>
+        <v>83095.986777321</v>
       </c>
       <c r="E2" t="n">
-        <v>100628.085712148</v>
+        <v>100174.520640289</v>
       </c>
       <c r="F2" t="n">
-        <v>103914.174809061</v>
+        <v>104207.274561743</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>67682</v>
+      </c>
+      <c r="I2" t="n">
+        <v>26019.8002651462</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -435,25 +459,31 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>82216.7135200123</v>
+        <v>81625.791819124</v>
       </c>
       <c r="C3" t="n">
-        <v>73738.9615971791</v>
+        <v>73029.9151364819</v>
       </c>
       <c r="D3" t="n">
-        <v>69207.3413648252</v>
+        <v>67890.6713225033</v>
       </c>
       <c r="E3" t="n">
-        <v>90475.1655511529</v>
+        <v>89973.3844369834</v>
       </c>
       <c r="F3" t="n">
-        <v>95854.9893804477</v>
+        <v>94083.8706518456</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>44933</v>
+      </c>
+      <c r="I3" t="n">
+        <v>36692.791819124</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -461,25 +491,31 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>100466.974104554</v>
+        <v>99973.1293187162</v>
       </c>
       <c r="C4" t="n">
-        <v>91179.8872300076</v>
+        <v>90970.4688390715</v>
       </c>
       <c r="D4" t="n">
-        <v>86621.5911346042</v>
+        <v>85378.1605484285</v>
       </c>
       <c r="E4" t="n">
-        <v>110121.819573191</v>
+        <v>108874.884908509</v>
       </c>
       <c r="F4" t="n">
-        <v>115411.514841414</v>
+        <v>114800.855660432</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>73427</v>
+      </c>
+      <c r="I4" t="n">
+        <v>26546.1293187162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -487,25 +523,31 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>95349.9623712417</v>
+        <v>94841.6010374968</v>
       </c>
       <c r="C5" t="n">
-        <v>84281.0930316628</v>
+        <v>84693.2662633136</v>
       </c>
       <c r="D5" t="n">
-        <v>76875.5177974729</v>
+        <v>79413.4156993734</v>
       </c>
       <c r="E5" t="n">
-        <v>107037.516780768</v>
+        <v>104134.51317211</v>
       </c>
       <c r="F5" t="n">
-        <v>112601.359011576</v>
+        <v>108856.892844317</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>85684</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9157.60103749682</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -513,25 +555,31 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>92146.9673657249</v>
+        <v>91662.9402110132</v>
       </c>
       <c r="C6" t="n">
-        <v>81073.4067676539</v>
+        <v>80482.2770904953</v>
       </c>
       <c r="D6" t="n">
-        <v>75442.030185782</v>
+        <v>74235.1018628444</v>
       </c>
       <c r="E6" t="n">
-        <v>104709.808668048</v>
+        <v>102545.019093501</v>
       </c>
       <c r="F6" t="n">
-        <v>109247.946536051</v>
+        <v>108238.521747011</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>83385</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8277.94021101318</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -539,25 +587,31 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>88434.8277645253</v>
+        <v>88070.2309422161</v>
       </c>
       <c r="C7" t="n">
-        <v>75004.6684334111</v>
+        <v>75953.4715281053</v>
       </c>
       <c r="D7" t="n">
-        <v>68705.57270916</v>
+        <v>69282.6563361548</v>
       </c>
       <c r="E7" t="n">
-        <v>101375.317787321</v>
+        <v>99509.7711106616</v>
       </c>
       <c r="F7" t="n">
-        <v>106862.469515942</v>
+        <v>104115.784260058</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>84952</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3118.23094221613</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -565,25 +619,31 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85717.831842526</v>
+        <v>85658.0148827289</v>
       </c>
       <c r="C8" t="n">
-        <v>73261.0338370031</v>
+        <v>72555.2317166122</v>
       </c>
       <c r="D8" t="n">
-        <v>63895.6356015008</v>
+        <v>65352.7163912909</v>
       </c>
       <c r="E8" t="n">
-        <v>99371.2996876576</v>
+        <v>98528.2894777573</v>
       </c>
       <c r="F8" t="n">
-        <v>105737.64973671</v>
+        <v>103807.587306848</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>76423</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9235.01488272886</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -591,25 +651,31 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>83212.8403763961</v>
+        <v>82049.7906982166</v>
       </c>
       <c r="C9" t="n">
-        <v>69146.0403076795</v>
+        <v>67668.5553570568</v>
       </c>
       <c r="D9" t="n">
-        <v>60773.7437435415</v>
+        <v>61690.6802239894</v>
       </c>
       <c r="E9" t="n">
-        <v>97073.4383526473</v>
+        <v>96040.5913430347</v>
       </c>
       <c r="F9" t="n">
-        <v>105559.399932631</v>
+        <v>102670.078625178</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>83101</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-1051.20930178338</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -617,25 +683,31 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78602.9790867665</v>
+        <v>78194.3918734034</v>
       </c>
       <c r="C10" t="n">
-        <v>63406.2427485394</v>
+        <v>63380.2405374829</v>
       </c>
       <c r="D10" t="n">
-        <v>54591.2126639985</v>
+        <v>56568.4860223065</v>
       </c>
       <c r="E10" t="n">
-        <v>93267.181802524</v>
+        <v>93637.2046754536</v>
       </c>
       <c r="F10" t="n">
-        <v>99579.9644412213</v>
+        <v>101115.979155853</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>75409</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2785.39187340337</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -643,25 +715,31 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>75622.9215893728</v>
+        <v>75029.5817769636</v>
       </c>
       <c r="C11" t="n">
-        <v>60516.6982655508</v>
+        <v>59722.4259927908</v>
       </c>
       <c r="D11" t="n">
-        <v>54082.4115277441</v>
+        <v>53658.5357929272</v>
       </c>
       <c r="E11" t="n">
-        <v>89908.3127597121</v>
+        <v>90521.5141630068</v>
       </c>
       <c r="F11" t="n">
-        <v>98762.8605666366</v>
+        <v>99257.8039770865</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>67843</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7186.58177696365</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -669,25 +747,31 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72776.7327597802</v>
+        <v>72335.210004443</v>
       </c>
       <c r="C12" t="n">
-        <v>56048.4716948529</v>
+        <v>56895.2161305698</v>
       </c>
       <c r="D12" t="n">
-        <v>48753.0857717412</v>
+        <v>49658.3000495916</v>
       </c>
       <c r="E12" t="n">
-        <v>89677.2721980307</v>
+        <v>88415.6101729731</v>
       </c>
       <c r="F12" t="n">
-        <v>97210.8900981554</v>
+        <v>95432.9804338796</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>69640</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2695.21000444295</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -695,25 +779,31 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70025.6191436252</v>
+        <v>69990.9384429845</v>
       </c>
       <c r="C13" t="n">
-        <v>52143.6222703638</v>
+        <v>53507.6183149542</v>
       </c>
       <c r="D13" t="n">
-        <v>46007.8450430411</v>
+        <v>47081.7175933333</v>
       </c>
       <c r="E13" t="n">
-        <v>86755.6795241811</v>
+        <v>85277.5827990022</v>
       </c>
       <c r="F13" t="n">
-        <v>96222.5060587386</v>
+        <v>94304.4426344595</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>64097</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5893.93844298451</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -721,25 +811,31 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92728.2343296304</v>
+        <v>92293.6717830492</v>
       </c>
       <c r="C14" t="n">
-        <v>74213.1254112527</v>
+        <v>74890.8415747399</v>
       </c>
       <c r="D14" t="n">
-        <v>66550.8653239005</v>
+        <v>66584.8307350091</v>
       </c>
       <c r="E14" t="n">
-        <v>110388.232130664</v>
+        <v>108861.702251841</v>
       </c>
       <c r="F14" t="n">
-        <v>122089.674519596</v>
+        <v>119120.232626153</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>64813</v>
+      </c>
+      <c r="I14" t="n">
+        <v>27480.6717830492</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -747,25 +843,31 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>80422.5391357891</v>
+        <v>80184.2949058957</v>
       </c>
       <c r="C15" t="n">
-        <v>61484.2410507972</v>
+        <v>63212.9449976444</v>
       </c>
       <c r="D15" t="n">
-        <v>53060.2952439204</v>
+        <v>54317.973004335</v>
       </c>
       <c r="E15" t="n">
-        <v>99660.1749665397</v>
+        <v>98445.7414816358</v>
       </c>
       <c r="F15" t="n">
-        <v>108113.061217942</v>
+        <v>106420.969191075</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>55425</v>
+      </c>
+      <c r="I15" t="n">
+        <v>24759.2949058957</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -773,25 +875,31 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>98987.0284090038</v>
+        <v>98709.1784605532</v>
       </c>
       <c r="C16" t="n">
-        <v>80658.3251262906</v>
+        <v>80141.7939214264</v>
       </c>
       <c r="D16" t="n">
-        <v>70114.4210566908</v>
+        <v>69802.3208655635</v>
       </c>
       <c r="E16" t="n">
-        <v>118824.060274</v>
+        <v>116931.128202196</v>
       </c>
       <c r="F16" t="n">
-        <v>129435.011652515</v>
+        <v>125974.739242069</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>80803</v>
+      </c>
+      <c r="I16" t="n">
+        <v>17906.1784605532</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -799,25 +907,31 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>94058.8191518284</v>
+        <v>93319.9149748611</v>
       </c>
       <c r="C17" t="n">
-        <v>75397.0001110207</v>
+        <v>73592.3923382477</v>
       </c>
       <c r="D17" t="n">
-        <v>64582.5074496428</v>
+        <v>63755.4600771028</v>
       </c>
       <c r="E17" t="n">
-        <v>114249.489185748</v>
+        <v>113443.502291344</v>
       </c>
       <c r="F17" t="n">
-        <v>125243.409946472</v>
+        <v>124032.708682282</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>80548</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12771.9149748611</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -825,25 +939,31 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90560.7788877897</v>
+        <v>90141.792323995</v>
       </c>
       <c r="C18" t="n">
-        <v>70763.0983308977</v>
+        <v>70741.6434315022</v>
       </c>
       <c r="D18" t="n">
-        <v>60728.1306118799</v>
+        <v>60272.9496434224</v>
       </c>
       <c r="E18" t="n">
-        <v>110476.765142685</v>
+        <v>111483.830940758</v>
       </c>
       <c r="F18" t="n">
-        <v>124215.03554628</v>
+        <v>119919.425659138</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>75243</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14898.792323995</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -851,25 +971,31 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>87135.4378757672</v>
+        <v>86712.8282497621</v>
       </c>
       <c r="C19" t="n">
-        <v>67241.6133741791</v>
+        <v>66234.4197460532</v>
       </c>
       <c r="D19" t="n">
-        <v>57806.9504241809</v>
+        <v>55783.5226260387</v>
       </c>
       <c r="E19" t="n">
-        <v>108937.838446625</v>
+        <v>107694.953020378</v>
       </c>
       <c r="F19" t="n">
-        <v>119171.725842608</v>
+        <v>118543.381997215</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>73884</v>
+      </c>
+      <c r="I19" t="n">
+        <v>12828.8282497621</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -877,25 +1003,31 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84619.7940767168</v>
+        <v>83988.5578313213</v>
       </c>
       <c r="C20" t="n">
-        <v>62313.2235395194</v>
+        <v>63415.7196526683</v>
       </c>
       <c r="D20" t="n">
-        <v>51306.603752843</v>
+        <v>46199.9953865512</v>
       </c>
       <c r="E20" t="n">
-        <v>107120.044411026</v>
+        <v>105354.248539374</v>
       </c>
       <c r="F20" t="n">
-        <v>114853.169953224</v>
+        <v>115194.201438361</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>76648</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7340.55783132128</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -903,25 +1035,31 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81650.2948866201</v>
+        <v>81252.7293373542</v>
       </c>
       <c r="C21" t="n">
-        <v>60304.3241505935</v>
+        <v>59539.5691464123</v>
       </c>
       <c r="D21" t="n">
-        <v>50159.3371988698</v>
+        <v>46577.2967934378</v>
       </c>
       <c r="E21" t="n">
-        <v>103420.214907185</v>
+        <v>103938.688837149</v>
       </c>
       <c r="F21" t="n">
-        <v>114808.741323622</v>
+        <v>114248.152489335</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>67966</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13286.7293373542</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -929,25 +1067,31 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77539.7902678505</v>
+        <v>77305.8981327349</v>
       </c>
       <c r="C22" t="n">
-        <v>55805.5840650634</v>
+        <v>55262.2725407576</v>
       </c>
       <c r="D22" t="n">
-        <v>45143.1560541724</v>
+        <v>42202.9993095359</v>
       </c>
       <c r="E22" t="n">
-        <v>101268.094697793</v>
+        <v>100236.472100443</v>
       </c>
       <c r="F22" t="n">
-        <v>111409.396107722</v>
+        <v>109511.983043788</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>67812</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9493.89813273489</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -955,25 +1099,31 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74461.4382463439</v>
+        <v>74087.5618145208</v>
       </c>
       <c r="C23" t="n">
-        <v>52652.3981781823</v>
+        <v>50741.5132027815</v>
       </c>
       <c r="D23" t="n">
-        <v>41312.6805490641</v>
+        <v>36585.6311701223</v>
       </c>
       <c r="E23" t="n">
-        <v>99322.9065906072</v>
+        <v>96493.1228672104</v>
       </c>
       <c r="F23" t="n">
-        <v>111614.734141121</v>
+        <v>107861.69800955</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>61391</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12696.5618145208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -981,25 +1131,31 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>72071.8224786957</v>
+        <v>71523.1827314979</v>
       </c>
       <c r="C24" t="n">
-        <v>49156.3342683703</v>
+        <v>46403.5523447979</v>
       </c>
       <c r="D24" t="n">
-        <v>38304.87185929</v>
+        <v>36280.4280001997</v>
       </c>
       <c r="E24" t="n">
-        <v>98715.0963087268</v>
+        <v>95348.7579065653</v>
       </c>
       <c r="F24" t="n">
-        <v>109304.25450518</v>
+        <v>107298.688106212</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>61753</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9770.18273149793</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1007,25 +1163,31 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>69530.6509993738</v>
+        <v>69083.4243804599</v>
       </c>
       <c r="C25" t="n">
-        <v>46371.8378555504</v>
+        <v>44194.985569905</v>
       </c>
       <c r="D25" t="n">
-        <v>32641.8427360606</v>
+        <v>33943.9692689598</v>
       </c>
       <c r="E25" t="n">
-        <v>93292.5983353156</v>
+        <v>91516.4143367209</v>
       </c>
       <c r="F25" t="n">
-        <v>105022.808607202</v>
+        <v>102261.664782855</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>61788</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7295.42438045987</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1033,25 +1195,31 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>92369.4888162361</v>
+        <v>91570.4894502054</v>
       </c>
       <c r="C26" t="n">
-        <v>67347.709316762</v>
+        <v>66192.0995589639</v>
       </c>
       <c r="D26" t="n">
-        <v>56642.6246206509</v>
+        <v>51041.2138117731</v>
       </c>
       <c r="E26" t="n">
-        <v>118269.273503359</v>
+        <v>115349.153567137</v>
       </c>
       <c r="F26" t="n">
-        <v>133624.157286111</v>
+        <v>127979.493072716</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>61697</v>
+      </c>
+      <c r="I26" t="n">
+        <v>29873.4894502054</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1059,25 +1227,31 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>80227.2299743169</v>
+        <v>79283.7893442799</v>
       </c>
       <c r="C27" t="n">
-        <v>55915.512113248</v>
+        <v>52519.6877884584</v>
       </c>
       <c r="D27" t="n">
-        <v>43470.7435629696</v>
+        <v>42496.238825022</v>
       </c>
       <c r="E27" t="n">
-        <v>107268.632683097</v>
+        <v>104621.66635918</v>
       </c>
       <c r="F27" t="n">
-        <v>120719.053020035</v>
+        <v>116291.618483757</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>52596</v>
+      </c>
+      <c r="I27" t="n">
+        <v>26687.7893442799</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1085,25 +1259,31 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>98530.3620118924</v>
+        <v>97525.958699417</v>
       </c>
       <c r="C28" t="n">
-        <v>74238.8007662595</v>
+        <v>69795.2801894157</v>
       </c>
       <c r="D28" t="n">
-        <v>60985.11408871</v>
+        <v>57191.1064934387</v>
       </c>
       <c r="E28" t="n">
-        <v>124339.337456527</v>
+        <v>122410.551580535</v>
       </c>
       <c r="F28" t="n">
-        <v>142101.113840406</v>
+        <v>138189.093933392</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>73110</v>
+      </c>
+      <c r="I28" t="n">
+        <v>24415.958699417</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1111,25 +1291,31 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>93457.1905702814</v>
+        <v>92272.4580226571</v>
       </c>
       <c r="C29" t="n">
-        <v>66730.5876463508</v>
+        <v>66205.7157605818</v>
       </c>
       <c r="D29" t="n">
-        <v>56133.2176861823</v>
+        <v>50410.1825987968</v>
       </c>
       <c r="E29" t="n">
-        <v>120381.411696577</v>
+        <v>118272.935141491</v>
       </c>
       <c r="F29" t="n">
-        <v>135701.538331435</v>
+        <v>132278.304767384</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>61185</v>
+      </c>
+      <c r="I29" t="n">
+        <v>31087.4580226571</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1137,25 +1323,31 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>90427.109689059</v>
+        <v>89697.6899129086</v>
       </c>
       <c r="C30" t="n">
-        <v>62345.2954545307</v>
+        <v>60104.599983308</v>
       </c>
       <c r="D30" t="n">
-        <v>51272.4969763588</v>
+        <v>48155.8908293044</v>
       </c>
       <c r="E30" t="n">
-        <v>118102.736864269</v>
+        <v>117392.512547301</v>
       </c>
       <c r="F30" t="n">
-        <v>132321.723580866</v>
+        <v>131369.86266726</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>63590</v>
+      </c>
+      <c r="I30" t="n">
+        <v>26107.6899129086</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1163,25 +1355,31 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>86738.2247898581</v>
+        <v>85714.7179599914</v>
       </c>
       <c r="C31" t="n">
-        <v>59146.7916627366</v>
+        <v>58738.9919724459</v>
       </c>
       <c r="D31" t="n">
-        <v>46232.3030172308</v>
+        <v>40830.3240391183</v>
       </c>
       <c r="E31" t="n">
-        <v>115007.160373708</v>
+        <v>114614.297224349</v>
       </c>
       <c r="F31" t="n">
-        <v>127726.734857254</v>
+        <v>129761.038722566</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>67901</v>
+      </c>
+      <c r="I31" t="n">
+        <v>17813.7179599914</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1189,25 +1387,31 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>84913.3844308019</v>
+        <v>83722.0752829992</v>
       </c>
       <c r="C32" t="n">
-        <v>57339.5887843524</v>
+        <v>55194.107219378</v>
       </c>
       <c r="D32" t="n">
-        <v>41778.0761224405</v>
+        <v>38001.1869644138</v>
       </c>
       <c r="E32" t="n">
-        <v>113299.281854221</v>
+        <v>111566.729747938</v>
       </c>
       <c r="F32" t="n">
-        <v>128423.410706213</v>
+        <v>125100.43780304</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>71422</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12300.0752829992</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1215,25 +1419,31 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>81611.2457664021</v>
+        <v>80598.9936331457</v>
       </c>
       <c r="C33" t="n">
-        <v>52141.0338431774</v>
+        <v>50590.6505618299</v>
       </c>
       <c r="D33" t="n">
-        <v>39362.1196753327</v>
+        <v>35083.1334089374</v>
       </c>
       <c r="E33" t="n">
-        <v>111810.036113826</v>
+        <v>108836.675560817</v>
       </c>
       <c r="F33" t="n">
-        <v>125647.669039552</v>
+        <v>125178.413118649</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>69019</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11579.9936331457</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1241,25 +1451,31 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>77093.78098185</v>
+        <v>76172.5247064596</v>
       </c>
       <c r="C34" t="n">
-        <v>48185.2250373541</v>
+        <v>44219.457062287</v>
       </c>
       <c r="D34" t="n">
-        <v>34419.0967970403</v>
+        <v>29150.209400735</v>
       </c>
       <c r="E34" t="n">
-        <v>107064.53376431</v>
+        <v>105105.848449004</v>
       </c>
       <c r="F34" t="n">
-        <v>122141.63959091</v>
+        <v>118551.67814156</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>58638</v>
+      </c>
+      <c r="I34" t="n">
+        <v>17534.5247064596</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1267,25 +1483,31 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>73902.0042353699</v>
+        <v>72911.6322675411</v>
       </c>
       <c r="C35" t="n">
-        <v>45203.0935429047</v>
+        <v>43377.505003983</v>
       </c>
       <c r="D35" t="n">
-        <v>29373.5594149021</v>
+        <v>23548.5256821994</v>
       </c>
       <c r="E35" t="n">
-        <v>102721.645121219</v>
+        <v>101881.764621191</v>
       </c>
       <c r="F35" t="n">
-        <v>122071.31204553</v>
+        <v>117485.183012037</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>51125</v>
+      </c>
+      <c r="I35" t="n">
+        <v>21786.6322675411</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1293,25 +1515,31 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>71097.0455185998</v>
+        <v>70577.638034793</v>
       </c>
       <c r="C36" t="n">
-        <v>40200.0273084537</v>
+        <v>38126.3684185051</v>
       </c>
       <c r="D36" t="n">
-        <v>24441.4735781971</v>
+        <v>22368.4191838794</v>
       </c>
       <c r="E36" t="n">
-        <v>102487.017820081</v>
+        <v>102584.809010954</v>
       </c>
       <c r="F36" t="n">
-        <v>119897.421497018</v>
+        <v>116760.723898259</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>48352</v>
+      </c>
+      <c r="I36" t="n">
+        <v>22225.638034793</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93701.8002651462</v>
+        <v>93058.9551221971</v>
       </c>
       <c r="C2" t="n">
-        <v>86453.1375298367</v>
+        <v>85660.1311719879</v>
       </c>
       <c r="D2" t="n">
-        <v>83095.986777321</v>
+        <v>82600.827181708</v>
       </c>
       <c r="E2" t="n">
-        <v>100174.520640289</v>
+        <v>99630.013742266</v>
       </c>
       <c r="F2" t="n">
-        <v>104207.274561743</v>
+        <v>104896.150376505</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +445,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26019.8002651462</v>
+        <v>25376.9551221971</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81625.791819124</v>
+        <v>81277.0683273001</v>
       </c>
       <c r="C3" t="n">
-        <v>73029.9151364819</v>
+        <v>73730.4923472365</v>
       </c>
       <c r="D3" t="n">
-        <v>67890.6713225033</v>
+        <v>69047.443994159</v>
       </c>
       <c r="E3" t="n">
-        <v>89973.3844369834</v>
+        <v>88791.718051241</v>
       </c>
       <c r="F3" t="n">
-        <v>94083.8706518456</v>
+        <v>94566.7822835755</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +477,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>36692.791819124</v>
+        <v>36344.0683273001</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>99973.1293187162</v>
+        <v>100747.978575943</v>
       </c>
       <c r="C4" t="n">
-        <v>90970.4688390715</v>
+        <v>92094.555016776</v>
       </c>
       <c r="D4" t="n">
-        <v>85378.1605484285</v>
+        <v>86292.2020131275</v>
       </c>
       <c r="E4" t="n">
-        <v>108874.884908509</v>
+        <v>109558.256762034</v>
       </c>
       <c r="F4" t="n">
-        <v>114800.855660432</v>
+        <v>114511.090275363</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +509,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>26546.1293187162</v>
+        <v>27320.9785759429</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94841.6010374968</v>
+        <v>96494.2099317789</v>
       </c>
       <c r="C5" t="n">
-        <v>84693.2662633136</v>
+        <v>86509.7083509529</v>
       </c>
       <c r="D5" t="n">
-        <v>79413.4156993734</v>
+        <v>81477.2979538914</v>
       </c>
       <c r="E5" t="n">
-        <v>104134.51317211</v>
+        <v>108117.755572228</v>
       </c>
       <c r="F5" t="n">
-        <v>108856.892844317</v>
+        <v>112279.607777831</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +541,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>9157.60103749682</v>
+        <v>10810.2099317789</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91662.9402110132</v>
+        <v>92087.11505642</v>
       </c>
       <c r="C6" t="n">
-        <v>80482.2770904953</v>
+        <v>82039.1158520445</v>
       </c>
       <c r="D6" t="n">
-        <v>74235.1018628444</v>
+        <v>76648.0148102412</v>
       </c>
       <c r="E6" t="n">
-        <v>102545.019093501</v>
+        <v>102968.112039837</v>
       </c>
       <c r="F6" t="n">
-        <v>108238.521747011</v>
+        <v>110732.287086696</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +573,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8277.94021101318</v>
+        <v>8702.11505641996</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>88070.2309422161</v>
+        <v>89467.8286172519</v>
       </c>
       <c r="C7" t="n">
-        <v>75953.4715281053</v>
+        <v>76492.5179326966</v>
       </c>
       <c r="D7" t="n">
-        <v>69282.6563361548</v>
+        <v>71149.9657868517</v>
       </c>
       <c r="E7" t="n">
-        <v>99509.7711106616</v>
+        <v>102695.652896163</v>
       </c>
       <c r="F7" t="n">
-        <v>104115.784260058</v>
+        <v>110338.572987145</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +605,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>3118.23094221613</v>
+        <v>4515.82861725194</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85658.0148827289</v>
+        <v>87154.7431211252</v>
       </c>
       <c r="C8" t="n">
-        <v>72555.2317166122</v>
+        <v>73422.7982813545</v>
       </c>
       <c r="D8" t="n">
-        <v>65352.7163912909</v>
+        <v>67198.0526093258</v>
       </c>
       <c r="E8" t="n">
-        <v>98528.2894777573</v>
+        <v>102165.646893774</v>
       </c>
       <c r="F8" t="n">
-        <v>103807.587306848</v>
+        <v>111601.600238714</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +637,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>9235.01488272886</v>
+        <v>10731.7431211252</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82049.7906982166</v>
+        <v>83898.7535397901</v>
       </c>
       <c r="C9" t="n">
-        <v>67668.5553570568</v>
+        <v>70211.1395113965</v>
       </c>
       <c r="D9" t="n">
-        <v>61690.6802239894</v>
+        <v>63564.506062347</v>
       </c>
       <c r="E9" t="n">
-        <v>96040.5913430347</v>
+        <v>99101.237939945</v>
       </c>
       <c r="F9" t="n">
-        <v>102670.078625178</v>
+        <v>106618.50155094</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +669,10 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>-1051.20930178338</v>
+        <v>797.753539790123</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78194.3918734034</v>
+        <v>80283.2230758908</v>
       </c>
       <c r="C10" t="n">
-        <v>63380.2405374829</v>
+        <v>63768.1125811443</v>
       </c>
       <c r="D10" t="n">
-        <v>56568.4860223065</v>
+        <v>56728.4966196887</v>
       </c>
       <c r="E10" t="n">
-        <v>93637.2046754536</v>
+        <v>95604.390863671</v>
       </c>
       <c r="F10" t="n">
-        <v>101115.979155853</v>
+        <v>107369.638392973</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +701,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2785.39187340337</v>
+        <v>4874.22307589077</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>75029.5817769636</v>
+        <v>77649.1302565111</v>
       </c>
       <c r="C11" t="n">
-        <v>59722.4259927908</v>
+        <v>60343.200532333</v>
       </c>
       <c r="D11" t="n">
-        <v>53658.5357929272</v>
+        <v>53574.4979518827</v>
       </c>
       <c r="E11" t="n">
-        <v>90521.5141630068</v>
+        <v>95102.2490435611</v>
       </c>
       <c r="F11" t="n">
-        <v>99257.8039770865</v>
+        <v>102556.220550421</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +733,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7186.58177696365</v>
+        <v>9806.13025651108</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72335.210004443</v>
+        <v>75298.2122747507</v>
       </c>
       <c r="C12" t="n">
-        <v>56895.2161305698</v>
+        <v>56382.5429338545</v>
       </c>
       <c r="D12" t="n">
-        <v>49658.3000495916</v>
+        <v>47507.9530913649</v>
       </c>
       <c r="E12" t="n">
-        <v>88415.6101729731</v>
+        <v>93702.2726339338</v>
       </c>
       <c r="F12" t="n">
-        <v>95432.9804338796</v>
+        <v>100061.711851437</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +765,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>2695.21000444295</v>
+        <v>5658.21227475074</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>69990.9384429845</v>
+        <v>73321.9846230035</v>
       </c>
       <c r="C13" t="n">
-        <v>53507.6183149542</v>
+        <v>55151.7573572971</v>
       </c>
       <c r="D13" t="n">
-        <v>47081.7175933333</v>
+        <v>46850.1608143308</v>
       </c>
       <c r="E13" t="n">
-        <v>85277.5827990022</v>
+        <v>92930.903698398</v>
       </c>
       <c r="F13" t="n">
-        <v>94304.4426344595</v>
+        <v>103797.967995839</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +797,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>5893.93844298451</v>
+        <v>9224.98462300353</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92293.6717830492</v>
+        <v>95606.0680431089</v>
       </c>
       <c r="C14" t="n">
-        <v>74890.8415747399</v>
+        <v>76039.8804406309</v>
       </c>
       <c r="D14" t="n">
-        <v>66584.8307350091</v>
+        <v>68229.5035506827</v>
       </c>
       <c r="E14" t="n">
-        <v>108861.702251841</v>
+        <v>116321.472359651</v>
       </c>
       <c r="F14" t="n">
-        <v>119120.232626153</v>
+        <v>125068.16256036</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +829,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>27480.6717830492</v>
+        <v>30793.0680431089</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>80184.2949058957</v>
+        <v>83181.389409349</v>
       </c>
       <c r="C15" t="n">
-        <v>63212.9449976444</v>
+        <v>62905.2511407694</v>
       </c>
       <c r="D15" t="n">
-        <v>54317.973004335</v>
+        <v>49729.7704459141</v>
       </c>
       <c r="E15" t="n">
-        <v>98445.7414816358</v>
+        <v>104970.237414308</v>
       </c>
       <c r="F15" t="n">
-        <v>106420.969191075</v>
+        <v>116247.476320963</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +861,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>24759.2949058957</v>
+        <v>27756.389409349</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>98709.1784605532</v>
+        <v>102884.369367845</v>
       </c>
       <c r="C16" t="n">
-        <v>80141.7939214264</v>
+        <v>80175.5995055134</v>
       </c>
       <c r="D16" t="n">
-        <v>69802.3208655635</v>
+        <v>70152.5098853733</v>
       </c>
       <c r="E16" t="n">
-        <v>116931.128202196</v>
+        <v>125073.507609966</v>
       </c>
       <c r="F16" t="n">
-        <v>125974.739242069</v>
+        <v>138037.031865751</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +893,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>17906.1784605532</v>
+        <v>22081.3693678452</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93319.9149748611</v>
+        <v>97855.6041859906</v>
       </c>
       <c r="C17" t="n">
-        <v>73592.3923382477</v>
+        <v>73137.205580993</v>
       </c>
       <c r="D17" t="n">
-        <v>63755.4600771028</v>
+        <v>62107.8274110389</v>
       </c>
       <c r="E17" t="n">
-        <v>113443.502291344</v>
+        <v>122221.289220243</v>
       </c>
       <c r="F17" t="n">
-        <v>124032.708682282</v>
+        <v>132379.554149994</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +925,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>12771.9149748611</v>
+        <v>17307.6041859906</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90141.792323995</v>
+        <v>94074.3344215806</v>
       </c>
       <c r="C18" t="n">
-        <v>70741.6434315022</v>
+        <v>69874.7366471686</v>
       </c>
       <c r="D18" t="n">
-        <v>60272.9496434224</v>
+        <v>59712.57866103</v>
       </c>
       <c r="E18" t="n">
-        <v>111483.830940758</v>
+        <v>121244.690231843</v>
       </c>
       <c r="F18" t="n">
-        <v>119919.425659138</v>
+        <v>127030.085431173</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +957,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>14898.792323995</v>
+        <v>18831.3344215806</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>86712.8282497621</v>
+        <v>90985.7490625298</v>
       </c>
       <c r="C19" t="n">
-        <v>66234.4197460532</v>
+        <v>63552.5834996087</v>
       </c>
       <c r="D19" t="n">
-        <v>55783.5226260387</v>
+        <v>50986.2826244551</v>
       </c>
       <c r="E19" t="n">
-        <v>107694.953020378</v>
+        <v>118751.857917628</v>
       </c>
       <c r="F19" t="n">
-        <v>118543.381997215</v>
+        <v>129566.404950535</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +989,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>12828.8282497621</v>
+        <v>17101.7490625298</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>83988.5578313213</v>
+        <v>88856.1728864362</v>
       </c>
       <c r="C20" t="n">
-        <v>63415.7196526683</v>
+        <v>58141.161869911</v>
       </c>
       <c r="D20" t="n">
-        <v>46199.9953865512</v>
+        <v>49443.6663850879</v>
       </c>
       <c r="E20" t="n">
-        <v>105354.248539374</v>
+        <v>118075.569392287</v>
       </c>
       <c r="F20" t="n">
-        <v>115194.201438361</v>
+        <v>130323.097996273</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1021,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7340.55783132128</v>
+        <v>12208.1728864362</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81252.7293373542</v>
+        <v>85377.6968305284</v>
       </c>
       <c r="C21" t="n">
-        <v>59539.5691464123</v>
+        <v>54284.4724813429</v>
       </c>
       <c r="D21" t="n">
-        <v>46577.2967934378</v>
+        <v>42203.8193203457</v>
       </c>
       <c r="E21" t="n">
-        <v>103938.688837149</v>
+        <v>115210.836761348</v>
       </c>
       <c r="F21" t="n">
-        <v>114248.152489335</v>
+        <v>128187.981295962</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1053,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13286.7293373542</v>
+        <v>17411.6968305284</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77305.8981327349</v>
+        <v>81461.4407268459</v>
       </c>
       <c r="C22" t="n">
-        <v>55262.2725407576</v>
+        <v>51378.4747862126</v>
       </c>
       <c r="D22" t="n">
-        <v>42202.9993095359</v>
+        <v>37703.5551885965</v>
       </c>
       <c r="E22" t="n">
-        <v>100236.472100443</v>
+        <v>110365.265625992</v>
       </c>
       <c r="F22" t="n">
-        <v>109511.983043788</v>
+        <v>125912.017688879</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1085,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9493.89813273489</v>
+        <v>13649.4407268459</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74087.5618145208</v>
+        <v>78556.7336898379</v>
       </c>
       <c r="C23" t="n">
-        <v>50741.5132027815</v>
+        <v>45702.9240463085</v>
       </c>
       <c r="D23" t="n">
-        <v>36585.6311701223</v>
+        <v>31861.2346253259</v>
       </c>
       <c r="E23" t="n">
-        <v>96493.1228672104</v>
+        <v>110177.389738134</v>
       </c>
       <c r="F23" t="n">
-        <v>107861.69800955</v>
+        <v>122955.895327896</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1117,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>12696.5618145208</v>
+        <v>17165.7336898379</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>71523.1827314979</v>
+        <v>75986.7360928521</v>
       </c>
       <c r="C24" t="n">
-        <v>46403.5523447979</v>
+        <v>44948.323090085</v>
       </c>
       <c r="D24" t="n">
-        <v>36280.4280001997</v>
+        <v>28633.6435059853</v>
       </c>
       <c r="E24" t="n">
-        <v>95348.7579065653</v>
+        <v>108066.5445947</v>
       </c>
       <c r="F24" t="n">
-        <v>107298.688106212</v>
+        <v>122744.313867575</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1149,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>9770.18273149793</v>
+        <v>14233.7360928521</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>69083.4243804599</v>
+        <v>73712.763284898</v>
       </c>
       <c r="C25" t="n">
-        <v>44194.985569905</v>
+        <v>40506.3709191774</v>
       </c>
       <c r="D25" t="n">
-        <v>33943.9692689598</v>
+        <v>28166.606131456</v>
       </c>
       <c r="E25" t="n">
-        <v>91516.4143367209</v>
+        <v>106936.356884811</v>
       </c>
       <c r="F25" t="n">
-        <v>102261.664782855</v>
+        <v>120162.768056083</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1181,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>7295.42438045987</v>
+        <v>11924.763284898</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>91570.4894502054</v>
+        <v>94887.4696719587</v>
       </c>
       <c r="C26" t="n">
-        <v>66192.0995589639</v>
+        <v>59234.3232023684</v>
       </c>
       <c r="D26" t="n">
-        <v>51041.2138117731</v>
+        <v>47603.2621016365</v>
       </c>
       <c r="E26" t="n">
-        <v>115349.153567137</v>
+        <v>129839.251215873</v>
       </c>
       <c r="F26" t="n">
-        <v>127979.493072716</v>
+        <v>143569.712862716</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1213,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>29873.4894502054</v>
+        <v>33190.4696719587</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>79283.7893442799</v>
+        <v>83187.8793294559</v>
       </c>
       <c r="C27" t="n">
-        <v>52519.6877884584</v>
+        <v>47131.618034733</v>
       </c>
       <c r="D27" t="n">
-        <v>42496.238825022</v>
+        <v>29148.1446386337</v>
       </c>
       <c r="E27" t="n">
-        <v>104621.66635918</v>
+        <v>117839.519082622</v>
       </c>
       <c r="F27" t="n">
-        <v>116291.618483757</v>
+        <v>129175.962609097</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1245,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>26687.7893442799</v>
+        <v>30591.8793294559</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>97525.958699417</v>
+        <v>102697.267920864</v>
       </c>
       <c r="C28" t="n">
-        <v>69795.2801894157</v>
+        <v>67463.4546668502</v>
       </c>
       <c r="D28" t="n">
-        <v>57191.1064934387</v>
+        <v>50184.1013638853</v>
       </c>
       <c r="E28" t="n">
-        <v>122410.551580535</v>
+        <v>138488.336087147</v>
       </c>
       <c r="F28" t="n">
-        <v>138189.093933392</v>
+        <v>155824.249140864</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1277,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>24415.958699417</v>
+        <v>29587.2679208641</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>92272.4580226571</v>
+        <v>97943.7211079392</v>
       </c>
       <c r="C29" t="n">
-        <v>66205.7157605818</v>
+        <v>61788.366755362</v>
       </c>
       <c r="D29" t="n">
-        <v>50410.1825987968</v>
+        <v>43091.507015484</v>
       </c>
       <c r="E29" t="n">
-        <v>118272.935141491</v>
+        <v>134138.62294461</v>
       </c>
       <c r="F29" t="n">
-        <v>132278.304767384</v>
+        <v>153368.998400775</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1309,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>31087.4580226571</v>
+        <v>36758.7211079392</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>89697.6899129086</v>
+        <v>93675.5586504207</v>
       </c>
       <c r="C30" t="n">
-        <v>60104.599983308</v>
+        <v>57795.2343296065</v>
       </c>
       <c r="D30" t="n">
-        <v>48155.8908293044</v>
+        <v>42621.5156982498</v>
       </c>
       <c r="E30" t="n">
-        <v>117392.512547301</v>
+        <v>129095.788268648</v>
       </c>
       <c r="F30" t="n">
-        <v>131369.86266726</v>
+        <v>151687.757589869</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1341,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>26107.6899129086</v>
+        <v>30085.5586504207</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>85714.7179599914</v>
+        <v>91549.8984153612</v>
       </c>
       <c r="C31" t="n">
-        <v>58738.9919724459</v>
+        <v>52717.5019531106</v>
       </c>
       <c r="D31" t="n">
-        <v>40830.3240391183</v>
+        <v>38605.6599474106</v>
       </c>
       <c r="E31" t="n">
-        <v>114614.297224349</v>
+        <v>128094.376649168</v>
       </c>
       <c r="F31" t="n">
-        <v>129761.038722566</v>
+        <v>147977.135821868</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1373,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>17813.7179599914</v>
+        <v>23648.8984153612</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>83722.0752829992</v>
+        <v>89713.8846563689</v>
       </c>
       <c r="C32" t="n">
-        <v>55194.107219378</v>
+        <v>51884.0282439606</v>
       </c>
       <c r="D32" t="n">
-        <v>38001.1869644138</v>
+        <v>30146.306700787</v>
       </c>
       <c r="E32" t="n">
-        <v>111566.729747938</v>
+        <v>125842.344386295</v>
       </c>
       <c r="F32" t="n">
-        <v>125100.43780304</v>
+        <v>151306.701864698</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1405,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>12300.0752829992</v>
+        <v>18291.8846563689</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>80598.9936331457</v>
+        <v>86235.0248807672</v>
       </c>
       <c r="C33" t="n">
-        <v>50590.6505618299</v>
+        <v>46858.0143903856</v>
       </c>
       <c r="D33" t="n">
-        <v>35083.1334089374</v>
+        <v>24668.2685170562</v>
       </c>
       <c r="E33" t="n">
-        <v>108836.675560817</v>
+        <v>123668.41734763</v>
       </c>
       <c r="F33" t="n">
-        <v>125178.413118649</v>
+        <v>151110.682770079</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1437,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>11579.9936331457</v>
+        <v>17216.0248807672</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>76172.5247064596</v>
+        <v>82202.8859793871</v>
       </c>
       <c r="C34" t="n">
-        <v>44219.457062287</v>
+        <v>39649.134531727</v>
       </c>
       <c r="D34" t="n">
-        <v>29150.209400735</v>
+        <v>17249.9786918564</v>
       </c>
       <c r="E34" t="n">
-        <v>105105.848449004</v>
+        <v>119886.040649407</v>
       </c>
       <c r="F34" t="n">
-        <v>118551.67814156</v>
+        <v>153760.28991624</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1469,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>17534.5247064596</v>
+        <v>23564.8859793871</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>72911.6322675411</v>
+        <v>79117.3190020298</v>
       </c>
       <c r="C35" t="n">
-        <v>43377.505003983</v>
+        <v>34466.9016168907</v>
       </c>
       <c r="D35" t="n">
-        <v>23548.5256821994</v>
+        <v>14451.1410415993</v>
       </c>
       <c r="E35" t="n">
-        <v>101881.764621191</v>
+        <v>119207.059773944</v>
       </c>
       <c r="F35" t="n">
-        <v>117485.183012037</v>
+        <v>145117.145300368</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1501,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>21786.6322675411</v>
+        <v>27992.3190020298</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>70577.638034793</v>
+        <v>76845.1026065989</v>
       </c>
       <c r="C36" t="n">
-        <v>38126.3684185051</v>
+        <v>35739.2022838934</v>
       </c>
       <c r="D36" t="n">
-        <v>22368.4191838794</v>
+        <v>15800.8509564442</v>
       </c>
       <c r="E36" t="n">
-        <v>102584.809010954</v>
+        <v>116413.328431585</v>
       </c>
       <c r="F36" t="n">
-        <v>116760.723898259</v>
+        <v>148148.550791106</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1533,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>22225.638034793</v>
+        <v>28493.1026065989</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -424,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93058.9551221971</v>
+        <v>93813.8244504116</v>
       </c>
       <c r="C2" t="n">
-        <v>85660.1311719879</v>
+        <v>86351.0999078183</v>
       </c>
       <c r="D2" t="n">
-        <v>82600.827181708</v>
+        <v>83346.5070851584</v>
       </c>
       <c r="E2" t="n">
-        <v>99630.013742266</v>
+        <v>101074.457926752</v>
       </c>
       <c r="F2" t="n">
-        <v>104896.150376505</v>
+        <v>105143.76625321</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>25376.9551221971</v>
+        <v>26131.8244504116</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81277.0683273001</v>
+        <v>81815.9677243549</v>
       </c>
       <c r="C3" t="n">
-        <v>73730.4923472365</v>
+        <v>72787.8500912919</v>
       </c>
       <c r="D3" t="n">
-        <v>69047.443994159</v>
+        <v>68404.8147800359</v>
       </c>
       <c r="E3" t="n">
-        <v>88791.718051241</v>
+        <v>90535.7851213258</v>
       </c>
       <c r="F3" t="n">
-        <v>94566.7822835755</v>
+        <v>96195.536798205</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>36344.0683273001</v>
+        <v>36882.9677243549</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>100747.978575943</v>
+        <v>99888.624651959</v>
       </c>
       <c r="C4" t="n">
-        <v>92094.555016776</v>
+        <v>90206.9594545865</v>
       </c>
       <c r="D4" t="n">
-        <v>86292.2020131275</v>
+        <v>85865.1880564943</v>
       </c>
       <c r="E4" t="n">
-        <v>109558.256762034</v>
+        <v>110115.554802549</v>
       </c>
       <c r="F4" t="n">
-        <v>114511.090275363</v>
+        <v>113637.346492821</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>27320.9785759429</v>
+        <v>26461.624651959</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>96494.2099317789</v>
+        <v>94587.139693037</v>
       </c>
       <c r="C5" t="n">
-        <v>86509.7083509529</v>
+        <v>83550.9959242685</v>
       </c>
       <c r="D5" t="n">
-        <v>81477.2979538914</v>
+        <v>78231.7510936497</v>
       </c>
       <c r="E5" t="n">
-        <v>108117.755572228</v>
+        <v>106080.136263159</v>
       </c>
       <c r="F5" t="n">
-        <v>112279.607777831</v>
+        <v>111756.833083963</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>10810.2099317789</v>
+        <v>8903.13969303697</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>92087.11505642</v>
+        <v>91496.248275286</v>
       </c>
       <c r="C6" t="n">
-        <v>82039.1158520445</v>
+        <v>79858.3838675726</v>
       </c>
       <c r="D6" t="n">
-        <v>76648.0148102412</v>
+        <v>72310.4352630349</v>
       </c>
       <c r="E6" t="n">
-        <v>102968.112039837</v>
+        <v>103193.025943541</v>
       </c>
       <c r="F6" t="n">
-        <v>110732.287086696</v>
+        <v>110404.234246795</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8702.11505641996</v>
+        <v>8111.24827528598</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>89467.8286172519</v>
+        <v>87774.9881553691</v>
       </c>
       <c r="C7" t="n">
-        <v>76492.5179326966</v>
+        <v>75226.6422880367</v>
       </c>
       <c r="D7" t="n">
-        <v>71149.9657868517</v>
+        <v>67894.262085011</v>
       </c>
       <c r="E7" t="n">
-        <v>102695.652896163</v>
+        <v>100149.777343943</v>
       </c>
       <c r="F7" t="n">
-        <v>110338.572987145</v>
+        <v>106817.944304804</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>4515.82861725194</v>
+        <v>2822.98815536914</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>87154.7431211252</v>
+        <v>85442.9958223232</v>
       </c>
       <c r="C8" t="n">
-        <v>73422.7982813545</v>
+        <v>72323.2653262633</v>
       </c>
       <c r="D8" t="n">
-        <v>67198.0526093258</v>
+        <v>63199.9294778371</v>
       </c>
       <c r="E8" t="n">
-        <v>102165.646893774</v>
+        <v>98977.8995311846</v>
       </c>
       <c r="F8" t="n">
-        <v>111601.600238714</v>
+        <v>108543.549232207</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>10731.7431211252</v>
+        <v>9019.99582232322</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>83898.7535397901</v>
+        <v>82655.4745857751</v>
       </c>
       <c r="C9" t="n">
-        <v>70211.1395113965</v>
+        <v>68942.8184645186</v>
       </c>
       <c r="D9" t="n">
-        <v>63564.506062347</v>
+        <v>60677.5324182568</v>
       </c>
       <c r="E9" t="n">
-        <v>99101.237939945</v>
+        <v>96596.926861028</v>
       </c>
       <c r="F9" t="n">
-        <v>106618.50155094</v>
+        <v>104194.512637236</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,10 +672,10 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>797.753539790123</v>
+        <v>-445.525414224932</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>80283.2230758908</v>
+        <v>78286.974725452</v>
       </c>
       <c r="C10" t="n">
-        <v>63768.1125811443</v>
+        <v>62497.0683770915</v>
       </c>
       <c r="D10" t="n">
-        <v>56728.4966196887</v>
+        <v>53694.0915552217</v>
       </c>
       <c r="E10" t="n">
-        <v>95604.390863671</v>
+        <v>93219.6189599094</v>
       </c>
       <c r="F10" t="n">
-        <v>107369.638392973</v>
+        <v>101720.991540945</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>4874.22307589077</v>
+        <v>2877.97472545196</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>77649.1302565111</v>
+        <v>75679.0249501705</v>
       </c>
       <c r="C11" t="n">
-        <v>60343.200532333</v>
+        <v>60052.8078662225</v>
       </c>
       <c r="D11" t="n">
-        <v>53574.4979518827</v>
+        <v>50752.7915510661</v>
       </c>
       <c r="E11" t="n">
-        <v>95102.2490435611</v>
+        <v>91118.9706108607</v>
       </c>
       <c r="F11" t="n">
-        <v>102556.220550421</v>
+        <v>99333.207352574</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>9806.13025651108</v>
+        <v>7836.02495017045</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>75298.2122747507</v>
+        <v>72730.9367785446</v>
       </c>
       <c r="C12" t="n">
-        <v>56382.5429338545</v>
+        <v>56693.2396995795</v>
       </c>
       <c r="D12" t="n">
-        <v>47507.9530913649</v>
+        <v>45841.5155776641</v>
       </c>
       <c r="E12" t="n">
-        <v>93702.2726339338</v>
+        <v>87920.7263867626</v>
       </c>
       <c r="F12" t="n">
-        <v>100061.711851437</v>
+        <v>98314.2444770729</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>5658.21227475074</v>
+        <v>3090.93677854461</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>73321.9846230035</v>
+        <v>70587.078313449</v>
       </c>
       <c r="C13" t="n">
-        <v>55151.7573572971</v>
+        <v>53566.573956089</v>
       </c>
       <c r="D13" t="n">
-        <v>46850.1608143308</v>
+        <v>41527.5012926178</v>
       </c>
       <c r="E13" t="n">
-        <v>92930.903698398</v>
+        <v>86151.3439143172</v>
       </c>
       <c r="F13" t="n">
-        <v>103797.967995839</v>
+        <v>99063.0508412424</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>9224.98462300353</v>
+        <v>6490.078313449</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>95606.0680431089</v>
+        <v>92709.4361017769</v>
       </c>
       <c r="C14" t="n">
-        <v>76039.8804406309</v>
+        <v>73364.3555439243</v>
       </c>
       <c r="D14" t="n">
-        <v>68229.5035506827</v>
+        <v>63159.1093146385</v>
       </c>
       <c r="E14" t="n">
-        <v>116321.472359651</v>
+        <v>111690.412947799</v>
       </c>
       <c r="F14" t="n">
-        <v>125068.16256036</v>
+        <v>119396.992283606</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>30793.0680431089</v>
+        <v>27896.4361017769</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>83181.389409349</v>
+        <v>80996.7279410801</v>
       </c>
       <c r="C15" t="n">
-        <v>62905.2511407694</v>
+        <v>61314.0107092816</v>
       </c>
       <c r="D15" t="n">
-        <v>49729.7704459141</v>
+        <v>51005.3823605213</v>
       </c>
       <c r="E15" t="n">
-        <v>104970.237414308</v>
+        <v>100828.764797523</v>
       </c>
       <c r="F15" t="n">
-        <v>116247.476320963</v>
+        <v>108902.40863437</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>27756.389409349</v>
+        <v>25571.7279410801</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>102884.369367845</v>
+        <v>99268.7029806304</v>
       </c>
       <c r="C16" t="n">
-        <v>80175.5995055134</v>
+        <v>79233.7795674066</v>
       </c>
       <c r="D16" t="n">
-        <v>70152.5098853733</v>
+        <v>68670.3823952198</v>
       </c>
       <c r="E16" t="n">
-        <v>125073.507609966</v>
+        <v>118034.785388631</v>
       </c>
       <c r="F16" t="n">
-        <v>138037.031865751</v>
+        <v>129448.55092934</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>22081.3693678452</v>
+        <v>18465.7029806304</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>97855.6041859906</v>
+        <v>93824.181114374</v>
       </c>
       <c r="C17" t="n">
-        <v>73137.205580993</v>
+        <v>73957.4261801499</v>
       </c>
       <c r="D17" t="n">
-        <v>62107.8274110389</v>
+        <v>64581.8203726112</v>
       </c>
       <c r="E17" t="n">
-        <v>122221.289220243</v>
+        <v>113832.856771849</v>
       </c>
       <c r="F17" t="n">
-        <v>132379.554149994</v>
+        <v>122631.672537201</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>17307.6041859906</v>
+        <v>13276.181114374</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>94074.3344215806</v>
+        <v>90624.583906951</v>
       </c>
       <c r="C18" t="n">
-        <v>69874.7366471686</v>
+        <v>68752.179791278</v>
       </c>
       <c r="D18" t="n">
-        <v>59712.57866103</v>
+        <v>58196.4020972657</v>
       </c>
       <c r="E18" t="n">
-        <v>121244.690231843</v>
+        <v>110062.194880708</v>
       </c>
       <c r="F18" t="n">
-        <v>127030.085431173</v>
+        <v>122664.13812328</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>18831.3344215806</v>
+        <v>15381.583906951</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>90985.7490625298</v>
+        <v>87170.1150297817</v>
       </c>
       <c r="C19" t="n">
-        <v>63552.5834996087</v>
+        <v>65340.0845812418</v>
       </c>
       <c r="D19" t="n">
-        <v>50986.2826244551</v>
+        <v>53422.6107744093</v>
       </c>
       <c r="E19" t="n">
-        <v>118751.857917628</v>
+        <v>106953.701751437</v>
       </c>
       <c r="F19" t="n">
-        <v>129566.404950535</v>
+        <v>119520.441914577</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>17101.7490625298</v>
+        <v>13286.1150297817</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>88856.1728864362</v>
+        <v>85178.7259963875</v>
       </c>
       <c r="C20" t="n">
-        <v>58141.161869911</v>
+        <v>62320.6410870648</v>
       </c>
       <c r="D20" t="n">
-        <v>49443.6663850879</v>
+        <v>50752.7273192958</v>
       </c>
       <c r="E20" t="n">
-        <v>118075.569392287</v>
+        <v>106247.65742526</v>
       </c>
       <c r="F20" t="n">
-        <v>130323.097996273</v>
+        <v>118142.206927654</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>12208.1728864362</v>
+        <v>8530.72599638751</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>85377.6968305284</v>
+        <v>82285.6396766702</v>
       </c>
       <c r="C21" t="n">
-        <v>54284.4724813429</v>
+        <v>57327.5260622611</v>
       </c>
       <c r="D21" t="n">
-        <v>42203.8193203457</v>
+        <v>45220.0736899554</v>
       </c>
       <c r="E21" t="n">
-        <v>115210.836761348</v>
+        <v>103958.104267204</v>
       </c>
       <c r="F21" t="n">
-        <v>128187.981295962</v>
+        <v>115335.342714344</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>17411.6968305284</v>
+        <v>14319.6396766702</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>81461.4407268459</v>
+        <v>77966.7210939205</v>
       </c>
       <c r="C22" t="n">
-        <v>51378.4747862126</v>
+        <v>53894.2728295959</v>
       </c>
       <c r="D22" t="n">
-        <v>37703.5551885965</v>
+        <v>41044.6176702676</v>
       </c>
       <c r="E22" t="n">
-        <v>110365.265625992</v>
+        <v>99895.6222293359</v>
       </c>
       <c r="F22" t="n">
-        <v>125912.017688879</v>
+        <v>112849.299281095</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>13649.4407268459</v>
+        <v>10154.7210939205</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>78556.7336898379</v>
+        <v>74628.902849469</v>
       </c>
       <c r="C23" t="n">
-        <v>45702.9240463085</v>
+        <v>49448.2231363185</v>
       </c>
       <c r="D23" t="n">
-        <v>31861.2346253259</v>
+        <v>36835.4534044039</v>
       </c>
       <c r="E23" t="n">
-        <v>110177.389738134</v>
+        <v>97213.4111963372</v>
       </c>
       <c r="F23" t="n">
-        <v>122955.895327896</v>
+        <v>107401.7473114</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>17165.7336898379</v>
+        <v>13237.902849469</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>75986.7360928521</v>
+        <v>72277.3231991848</v>
       </c>
       <c r="C24" t="n">
-        <v>44948.323090085</v>
+        <v>47715.1290174183</v>
       </c>
       <c r="D24" t="n">
-        <v>28633.6435059853</v>
+        <v>32466.5820815871</v>
       </c>
       <c r="E24" t="n">
-        <v>108066.5445947</v>
+        <v>96308.4993490873</v>
       </c>
       <c r="F24" t="n">
-        <v>122744.313867575</v>
+        <v>107689.463633003</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>14233.7360928521</v>
+        <v>10524.3231991848</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>73712.763284898</v>
+        <v>69995.2069202273</v>
       </c>
       <c r="C25" t="n">
-        <v>40506.3709191774</v>
+        <v>45461.9706300278</v>
       </c>
       <c r="D25" t="n">
-        <v>28166.606131456</v>
+        <v>31545.6906550626</v>
       </c>
       <c r="E25" t="n">
-        <v>106936.356884811</v>
+        <v>94864.3662133656</v>
       </c>
       <c r="F25" t="n">
-        <v>120162.768056083</v>
+        <v>105577.441054569</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>11924.763284898</v>
+        <v>8207.2069202273</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>94887.4696719587</v>
+        <v>92008.4644857405</v>
       </c>
       <c r="C26" t="n">
-        <v>59234.3232023684</v>
+        <v>67504.5177187922</v>
       </c>
       <c r="D26" t="n">
-        <v>47603.2621016365</v>
+        <v>52285.8527984569</v>
       </c>
       <c r="E26" t="n">
-        <v>129839.251215873</v>
+        <v>116776.214344395</v>
       </c>
       <c r="F26" t="n">
-        <v>143569.712862716</v>
+        <v>126195.560567237</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>33190.4696719587</v>
+        <v>30311.4644857405</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>83187.8793294559</v>
+        <v>80426.9614499537</v>
       </c>
       <c r="C27" t="n">
-        <v>47131.618034733</v>
+        <v>56527.7827230846</v>
       </c>
       <c r="D27" t="n">
-        <v>29148.1446386337</v>
+        <v>41234.3446914897</v>
       </c>
       <c r="E27" t="n">
-        <v>117839.519082622</v>
+        <v>106289.242390919</v>
       </c>
       <c r="F27" t="n">
-        <v>129175.962609097</v>
+        <v>116016.412903601</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>30591.8793294559</v>
+        <v>27830.9614499537</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>102697.267920864</v>
+        <v>98424.8731223943</v>
       </c>
       <c r="C28" t="n">
-        <v>67463.4546668502</v>
+        <v>72990.9010871513</v>
       </c>
       <c r="D28" t="n">
-        <v>50184.1013638853</v>
+        <v>56675.1307232785</v>
       </c>
       <c r="E28" t="n">
-        <v>138488.336087147</v>
+        <v>123830.982710049</v>
       </c>
       <c r="F28" t="n">
-        <v>155824.249140864</v>
+        <v>134689.327865779</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>29587.2679208641</v>
+        <v>25314.8731223943</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>97943.7211079392</v>
+        <v>93201.9899980014</v>
       </c>
       <c r="C29" t="n">
-        <v>61788.366755362</v>
+        <v>66901.9476924895</v>
       </c>
       <c r="D29" t="n">
-        <v>43091.507015484</v>
+        <v>52174.7731370705</v>
       </c>
       <c r="E29" t="n">
-        <v>134138.62294461</v>
+        <v>120578.648725202</v>
       </c>
       <c r="F29" t="n">
-        <v>153368.998400775</v>
+        <v>132804.586262589</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>36758.7211079392</v>
+        <v>32016.9899980014</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>93675.5586504207</v>
+        <v>90199.1058970329</v>
       </c>
       <c r="C30" t="n">
-        <v>57795.2343296065</v>
+        <v>63273.1635512221</v>
       </c>
       <c r="D30" t="n">
-        <v>42621.5156982498</v>
+        <v>47024.6609642546</v>
       </c>
       <c r="E30" t="n">
-        <v>129095.788268648</v>
+        <v>118799.969513194</v>
       </c>
       <c r="F30" t="n">
-        <v>151687.757589869</v>
+        <v>129911.394829739</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>30085.5586504207</v>
+        <v>26609.1058970329</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>91549.8984153612</v>
+        <v>86513.4623315548</v>
       </c>
       <c r="C31" t="n">
-        <v>52717.5019531106</v>
+        <v>58121.0252507673</v>
       </c>
       <c r="D31" t="n">
-        <v>38605.6599474106</v>
+        <v>43052.4906982189</v>
       </c>
       <c r="E31" t="n">
-        <v>128094.376649168</v>
+        <v>113492.348123143</v>
       </c>
       <c r="F31" t="n">
-        <v>147977.135821868</v>
+        <v>129454.470601811</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>23648.8984153612</v>
+        <v>18612.4623315548</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>89713.8846563689</v>
+        <v>84035.4384313675</v>
       </c>
       <c r="C32" t="n">
-        <v>51884.0282439606</v>
+        <v>55673.0418932895</v>
       </c>
       <c r="D32" t="n">
-        <v>30146.306700787</v>
+        <v>38864.9131255593</v>
       </c>
       <c r="E32" t="n">
-        <v>125842.344386295</v>
+        <v>113749.247126638</v>
       </c>
       <c r="F32" t="n">
-        <v>151306.701864698</v>
+        <v>125721.651471601</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>18291.8846563689</v>
+        <v>12613.4384313675</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>86235.0248807672</v>
+        <v>81237.8676079526</v>
       </c>
       <c r="C33" t="n">
-        <v>46858.0143903856</v>
+        <v>50896.7728860144</v>
       </c>
       <c r="D33" t="n">
-        <v>24668.2685170562</v>
+        <v>33617.3126500974</v>
       </c>
       <c r="E33" t="n">
-        <v>123668.41734763</v>
+        <v>110445.745243935</v>
       </c>
       <c r="F33" t="n">
-        <v>151110.682770079</v>
+        <v>123497.165960074</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>17216.0248807672</v>
+        <v>12218.8676079526</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>82202.8859793871</v>
+        <v>76641.1686034532</v>
       </c>
       <c r="C34" t="n">
-        <v>39649.134531727</v>
+        <v>46161.120237611</v>
       </c>
       <c r="D34" t="n">
-        <v>17249.9786918564</v>
+        <v>27111.0978664634</v>
       </c>
       <c r="E34" t="n">
-        <v>119886.040649407</v>
+        <v>107038.263420523</v>
       </c>
       <c r="F34" t="n">
-        <v>153760.28991624</v>
+        <v>119919.168363514</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>23564.8859793871</v>
+        <v>18003.1686034532</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>79117.3190020298</v>
+        <v>73759.9311546981</v>
       </c>
       <c r="C35" t="n">
-        <v>34466.9016168907</v>
+        <v>43394.4157853755</v>
       </c>
       <c r="D35" t="n">
-        <v>14451.1410415993</v>
+        <v>18771.6345809668</v>
       </c>
       <c r="E35" t="n">
-        <v>119207.059773944</v>
+        <v>105730.813892709</v>
       </c>
       <c r="F35" t="n">
-        <v>145117.145300368</v>
+        <v>117375.658537428</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>27992.3190020298</v>
+        <v>22634.9311546981</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>76845.1026065989</v>
+        <v>70779.0279131081</v>
       </c>
       <c r="C36" t="n">
-        <v>35739.2022838934</v>
+        <v>39377.2538745749</v>
       </c>
       <c r="D36" t="n">
-        <v>15800.8509564442</v>
+        <v>17555.769296063</v>
       </c>
       <c r="E36" t="n">
-        <v>116413.328431585</v>
+        <v>101754.218364417</v>
       </c>
       <c r="F36" t="n">
-        <v>148148.550791106</v>
+        <v>117349.689997773</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>28493.1026065989</v>
+        <v>22427.0279131081</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93813.8244504116</v>
+        <v>93850.519611571</v>
       </c>
       <c r="C2" t="n">
-        <v>86351.0999078183</v>
+        <v>87021.9958480873</v>
       </c>
       <c r="D2" t="n">
-        <v>83346.5070851584</v>
+        <v>82439.2631088903</v>
       </c>
       <c r="E2" t="n">
-        <v>101074.457926752</v>
+        <v>100841.073031735</v>
       </c>
       <c r="F2" t="n">
-        <v>105143.76625321</v>
+        <v>104842.783755086</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +445,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26131.8244504116</v>
+        <v>26168.519611571</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81815.9677243549</v>
+        <v>82058.9044285424</v>
       </c>
       <c r="C3" t="n">
-        <v>72787.8500912919</v>
+        <v>73933.3628564269</v>
       </c>
       <c r="D3" t="n">
-        <v>68404.8147800359</v>
+        <v>69595.4606895165</v>
       </c>
       <c r="E3" t="n">
-        <v>90535.7851213258</v>
+        <v>90777.1805491741</v>
       </c>
       <c r="F3" t="n">
-        <v>96195.536798205</v>
+        <v>95446.0898514091</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +477,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>36882.9677243549</v>
+        <v>37125.9044285424</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>99888.624651959</v>
+        <v>100515.00227493</v>
       </c>
       <c r="C4" t="n">
-        <v>90206.9594545865</v>
+        <v>91963.9204135802</v>
       </c>
       <c r="D4" t="n">
-        <v>85865.1880564943</v>
+        <v>87018.3086186855</v>
       </c>
       <c r="E4" t="n">
-        <v>110115.554802549</v>
+        <v>109757.760438968</v>
       </c>
       <c r="F4" t="n">
-        <v>113637.346492821</v>
+        <v>115323.393063945</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +509,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>26461.624651959</v>
+        <v>27088.0022749296</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94587.139693037</v>
+        <v>95469.4177816844</v>
       </c>
       <c r="C5" t="n">
-        <v>83550.9959242685</v>
+        <v>85492.7380381148</v>
       </c>
       <c r="D5" t="n">
-        <v>78231.7510936497</v>
+        <v>78946.1492414165</v>
       </c>
       <c r="E5" t="n">
-        <v>106080.136263159</v>
+        <v>106079.412213712</v>
       </c>
       <c r="F5" t="n">
-        <v>111756.833083963</v>
+        <v>111502.460108403</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +541,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>8903.13969303697</v>
+        <v>9785.41778168439</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91496.248275286</v>
+        <v>92429.9885670524</v>
       </c>
       <c r="C6" t="n">
-        <v>79858.3838675726</v>
+        <v>81817.8154140367</v>
       </c>
       <c r="D6" t="n">
-        <v>72310.4352630349</v>
+        <v>74192.6608940755</v>
       </c>
       <c r="E6" t="n">
-        <v>103193.025943541</v>
+        <v>103703.9051347</v>
       </c>
       <c r="F6" t="n">
-        <v>110404.234246795</v>
+        <v>109252.071005848</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +573,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8111.24827528598</v>
+        <v>9044.98856705239</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>87774.9881553691</v>
+        <v>88426.8877250492</v>
       </c>
       <c r="C7" t="n">
-        <v>75226.6422880367</v>
+        <v>76349.2863324514</v>
       </c>
       <c r="D7" t="n">
-        <v>67894.262085011</v>
+        <v>70041.9908730369</v>
       </c>
       <c r="E7" t="n">
-        <v>100149.777343943</v>
+        <v>100267.323681371</v>
       </c>
       <c r="F7" t="n">
-        <v>106817.944304804</v>
+        <v>105455.582525986</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +605,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>2822.98815536914</v>
+        <v>3474.88772504918</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85442.9958223232</v>
+        <v>86133.4440846094</v>
       </c>
       <c r="C8" t="n">
-        <v>72323.2653262633</v>
+        <v>74409.6140251833</v>
       </c>
       <c r="D8" t="n">
-        <v>63199.9294778371</v>
+        <v>64706.7236953693</v>
       </c>
       <c r="E8" t="n">
-        <v>98977.8995311846</v>
+        <v>98753.0074764712</v>
       </c>
       <c r="F8" t="n">
-        <v>108543.549232207</v>
+        <v>106008.430186836</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +637,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>9019.99582232322</v>
+        <v>9710.44408460939</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82655.4745857751</v>
+        <v>83307.2981857205</v>
       </c>
       <c r="C9" t="n">
-        <v>68942.8184645186</v>
+        <v>69575.9880126221</v>
       </c>
       <c r="D9" t="n">
-        <v>60677.5324182568</v>
+        <v>63876.4364639429</v>
       </c>
       <c r="E9" t="n">
-        <v>96596.926861028</v>
+        <v>97033.0813301349</v>
       </c>
       <c r="F9" t="n">
-        <v>104194.512637236</v>
+        <v>102856.63694693</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +669,10 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>-445.525414224932</v>
+        <v>206.298185720501</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78286.974725452</v>
+        <v>78913.9851100385</v>
       </c>
       <c r="C10" t="n">
-        <v>62497.0683770915</v>
+        <v>64169.3898580776</v>
       </c>
       <c r="D10" t="n">
-        <v>53694.0915552217</v>
+        <v>56687.1597593266</v>
       </c>
       <c r="E10" t="n">
-        <v>93219.6189599094</v>
+        <v>93107.6134236543</v>
       </c>
       <c r="F10" t="n">
-        <v>101720.991540945</v>
+        <v>101413.408413955</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +701,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2877.97472545196</v>
+        <v>3504.98511003853</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>75679.0249501705</v>
+        <v>76175.0769703574</v>
       </c>
       <c r="C11" t="n">
-        <v>60052.8078662225</v>
+        <v>60578.014513713</v>
       </c>
       <c r="D11" t="n">
-        <v>50752.7915510661</v>
+        <v>53804.2479374607</v>
       </c>
       <c r="E11" t="n">
-        <v>91118.9706108607</v>
+        <v>92075.4658689597</v>
       </c>
       <c r="F11" t="n">
-        <v>99333.207352574</v>
+        <v>100390.255791345</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +733,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7836.02495017045</v>
+        <v>8332.07697035736</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72730.9367785446</v>
+        <v>73761.1728093164</v>
       </c>
       <c r="C12" t="n">
-        <v>56693.2396995795</v>
+        <v>57270.2545975679</v>
       </c>
       <c r="D12" t="n">
-        <v>45841.5155776641</v>
+        <v>48892.379321079</v>
       </c>
       <c r="E12" t="n">
-        <v>87920.7263867626</v>
+        <v>89676.9096079617</v>
       </c>
       <c r="F12" t="n">
-        <v>98314.2444770729</v>
+        <v>99655.9192883376</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +765,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>3090.93677854461</v>
+        <v>4121.1728093164</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70587.078313449</v>
+        <v>70781.4297569676</v>
       </c>
       <c r="C13" t="n">
-        <v>53566.573956089</v>
+        <v>53010.5410228179</v>
       </c>
       <c r="D13" t="n">
-        <v>41527.5012926178</v>
+        <v>47767.4515533449</v>
       </c>
       <c r="E13" t="n">
-        <v>86151.3439143172</v>
+        <v>87418.406134045</v>
       </c>
       <c r="F13" t="n">
-        <v>99063.0508412424</v>
+        <v>95873.7926433369</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +797,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>6490.078313449</v>
+        <v>6684.42975696763</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92709.4361017769</v>
+        <v>93525.9948742626</v>
       </c>
       <c r="C14" t="n">
-        <v>73364.3555439243</v>
+        <v>75094.185104167</v>
       </c>
       <c r="D14" t="n">
-        <v>63159.1093146385</v>
+        <v>68631.293542025</v>
       </c>
       <c r="E14" t="n">
-        <v>111690.412947799</v>
+        <v>110763.911554181</v>
       </c>
       <c r="F14" t="n">
-        <v>119396.992283606</v>
+        <v>119219.415665847</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +829,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>27896.4361017769</v>
+        <v>28712.9948742626</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>80996.7279410801</v>
+        <v>81021.5729418028</v>
       </c>
       <c r="C15" t="n">
-        <v>61314.0107092816</v>
+        <v>61883.6201254791</v>
       </c>
       <c r="D15" t="n">
-        <v>51005.3823605213</v>
+        <v>53533.7996593795</v>
       </c>
       <c r="E15" t="n">
-        <v>100828.764797523</v>
+        <v>98836.1461687179</v>
       </c>
       <c r="F15" t="n">
-        <v>108902.40863437</v>
+        <v>108254.411458311</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +861,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>25571.7279410801</v>
+        <v>25596.5729418028</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>99268.7029806304</v>
+        <v>99567.1072069245</v>
       </c>
       <c r="C16" t="n">
-        <v>79233.7795674066</v>
+        <v>81238.2876659265</v>
       </c>
       <c r="D16" t="n">
-        <v>68670.3823952198</v>
+        <v>72558.762244723</v>
       </c>
       <c r="E16" t="n">
-        <v>118034.785388631</v>
+        <v>119198.403574133</v>
       </c>
       <c r="F16" t="n">
-        <v>129448.55092934</v>
+        <v>126749.774535356</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +893,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>18465.7029806304</v>
+        <v>18764.1072069245</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>93824.181114374</v>
+        <v>94041.349089072</v>
       </c>
       <c r="C17" t="n">
-        <v>73957.4261801499</v>
+        <v>74694.9078690664</v>
       </c>
       <c r="D17" t="n">
-        <v>64581.8203726112</v>
+        <v>66429.682590686</v>
       </c>
       <c r="E17" t="n">
-        <v>113832.856771849</v>
+        <v>113519.298385763</v>
       </c>
       <c r="F17" t="n">
-        <v>122631.672537201</v>
+        <v>119753.332656951</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +925,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>13276.181114374</v>
+        <v>13493.349089072</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90624.583906951</v>
+        <v>91151.8413947225</v>
       </c>
       <c r="C18" t="n">
-        <v>68752.179791278</v>
+        <v>71427.1354087142</v>
       </c>
       <c r="D18" t="n">
-        <v>58196.4020972657</v>
+        <v>61865.4471894079</v>
       </c>
       <c r="E18" t="n">
-        <v>110062.194880708</v>
+        <v>112139.063616968</v>
       </c>
       <c r="F18" t="n">
-        <v>122664.13812328</v>
+        <v>120180.459931503</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +957,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>15381.583906951</v>
+        <v>15908.8413947225</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>87170.1150297817</v>
+        <v>87274.4545153697</v>
       </c>
       <c r="C19" t="n">
-        <v>65340.0845812418</v>
+        <v>67928.644439488</v>
       </c>
       <c r="D19" t="n">
-        <v>53422.6107744093</v>
+        <v>57114.1393403668</v>
       </c>
       <c r="E19" t="n">
-        <v>106953.701751437</v>
+        <v>106795.935213423</v>
       </c>
       <c r="F19" t="n">
-        <v>119520.441914577</v>
+        <v>117325.529802232</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +989,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>13286.1150297817</v>
+        <v>13390.4545153697</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>85178.7259963875</v>
+        <v>85512.8593873759</v>
       </c>
       <c r="C20" t="n">
-        <v>62320.6410870648</v>
+        <v>63868.9789137128</v>
       </c>
       <c r="D20" t="n">
-        <v>50752.7273192958</v>
+        <v>54992.2810463371</v>
       </c>
       <c r="E20" t="n">
-        <v>106247.65742526</v>
+        <v>106981.485348393</v>
       </c>
       <c r="F20" t="n">
-        <v>118142.206927654</v>
+        <v>116690.186029635</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1021,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>8530.72599638751</v>
+        <v>8864.85938737592</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>82285.6396766702</v>
+        <v>82291.4431870283</v>
       </c>
       <c r="C21" t="n">
-        <v>57327.5260622611</v>
+        <v>61395.4883244812</v>
       </c>
       <c r="D21" t="n">
-        <v>45220.0736899554</v>
+        <v>50571.5640437711</v>
       </c>
       <c r="E21" t="n">
-        <v>103958.104267204</v>
+        <v>104276.440523706</v>
       </c>
       <c r="F21" t="n">
-        <v>115335.342714344</v>
+        <v>114687.796184419</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1053,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>14319.6396766702</v>
+        <v>14325.4431870283</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77966.7210939205</v>
+        <v>78014.225677676</v>
       </c>
       <c r="C22" t="n">
-        <v>53894.2728295959</v>
+        <v>56758.3608156742</v>
       </c>
       <c r="D22" t="n">
-        <v>41044.6176702676</v>
+        <v>44855.1237552094</v>
       </c>
       <c r="E22" t="n">
-        <v>99895.6222293359</v>
+        <v>99908.2285419733</v>
       </c>
       <c r="F22" t="n">
-        <v>112849.299281095</v>
+        <v>111672.104085172</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1085,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>10154.7210939205</v>
+        <v>10202.225677676</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74628.902849469</v>
+        <v>75303.2136936446</v>
       </c>
       <c r="C23" t="n">
-        <v>49448.2231363185</v>
+        <v>52133.7073050686</v>
       </c>
       <c r="D23" t="n">
-        <v>36835.4534044039</v>
+        <v>40769.4555519492</v>
       </c>
       <c r="E23" t="n">
-        <v>97213.4111963372</v>
+        <v>98313.2641274354</v>
       </c>
       <c r="F23" t="n">
-        <v>107401.7473114</v>
+        <v>111842.473574288</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1117,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>13237.902849469</v>
+        <v>13912.2136936446</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>72277.3231991848</v>
+        <v>72630.9330884545</v>
       </c>
       <c r="C24" t="n">
-        <v>47715.1290174183</v>
+        <v>49537.879403679</v>
       </c>
       <c r="D24" t="n">
-        <v>32466.5820815871</v>
+        <v>38740.3417101729</v>
       </c>
       <c r="E24" t="n">
-        <v>96308.4993490873</v>
+        <v>97466.5322788699</v>
       </c>
       <c r="F24" t="n">
-        <v>107689.463633003</v>
+        <v>110872.787123141</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1149,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>10524.3231991848</v>
+        <v>10877.9330884545</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>69995.2069202273</v>
+        <v>70316.2076948419</v>
       </c>
       <c r="C25" t="n">
-        <v>45461.9706300278</v>
+        <v>45328.632363292</v>
       </c>
       <c r="D25" t="n">
-        <v>31545.6906550626</v>
+        <v>34881.4064014712</v>
       </c>
       <c r="E25" t="n">
-        <v>94864.3662133656</v>
+        <v>95029.127538586</v>
       </c>
       <c r="F25" t="n">
-        <v>105577.441054569</v>
+        <v>107754.123464083</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1181,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>8207.2069202273</v>
+        <v>8528.20769484187</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>92008.4644857405</v>
+        <v>92929.2417559734</v>
       </c>
       <c r="C26" t="n">
-        <v>67504.5177187922</v>
+        <v>67099.6091928047</v>
       </c>
       <c r="D26" t="n">
-        <v>52285.8527984569</v>
+        <v>57772.4142107325</v>
       </c>
       <c r="E26" t="n">
-        <v>116776.214344395</v>
+        <v>118002.692857688</v>
       </c>
       <c r="F26" t="n">
-        <v>126195.560567237</v>
+        <v>128378.404189287</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1213,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>30311.4644857405</v>
+        <v>31232.2417559734</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>80426.9614499537</v>
+        <v>80088.2272783587</v>
       </c>
       <c r="C27" t="n">
-        <v>56527.7827230846</v>
+        <v>54802.3384479907</v>
       </c>
       <c r="D27" t="n">
-        <v>41234.3446914897</v>
+        <v>41214.7623250039</v>
       </c>
       <c r="E27" t="n">
-        <v>106289.242390919</v>
+        <v>106729.826017011</v>
       </c>
       <c r="F27" t="n">
-        <v>116016.412903601</v>
+        <v>119187.211694808</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1245,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>27830.9614499537</v>
+        <v>27492.2272783587</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>98424.8731223943</v>
+        <v>98871.0172579906</v>
       </c>
       <c r="C28" t="n">
-        <v>72990.9010871513</v>
+        <v>73141.5160714366</v>
       </c>
       <c r="D28" t="n">
-        <v>56675.1307232785</v>
+        <v>59322.0740702428</v>
       </c>
       <c r="E28" t="n">
-        <v>123830.982710049</v>
+        <v>126326.621279374</v>
       </c>
       <c r="F28" t="n">
-        <v>134689.327865779</v>
+        <v>139736.385530184</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1277,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>25314.8731223943</v>
+        <v>25761.0172579906</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>93201.9899980014</v>
+        <v>93419.704346744</v>
       </c>
       <c r="C29" t="n">
-        <v>66901.9476924895</v>
+        <v>67280.6301395665</v>
       </c>
       <c r="D29" t="n">
-        <v>52174.7731370705</v>
+        <v>54088.8065479771</v>
       </c>
       <c r="E29" t="n">
-        <v>120578.648725202</v>
+        <v>122724.024078187</v>
       </c>
       <c r="F29" t="n">
-        <v>132804.586262589</v>
+        <v>131287.542194489</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1309,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>32016.9899980014</v>
+        <v>32234.704346744</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>90199.1058970329</v>
+        <v>90188.7824118524</v>
       </c>
       <c r="C30" t="n">
-        <v>63273.1635512221</v>
+        <v>62011.8808057257</v>
       </c>
       <c r="D30" t="n">
-        <v>47024.6609642546</v>
+        <v>49745.5345760011</v>
       </c>
       <c r="E30" t="n">
-        <v>118799.969513194</v>
+        <v>118015.723283959</v>
       </c>
       <c r="F30" t="n">
-        <v>129911.394829739</v>
+        <v>131792.057625113</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1341,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>26609.1058970329</v>
+        <v>26598.7824118524</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>86513.4623315548</v>
+        <v>86688.80010812</v>
       </c>
       <c r="C31" t="n">
-        <v>58121.0252507673</v>
+        <v>58455.1367033584</v>
       </c>
       <c r="D31" t="n">
-        <v>43052.4906982189</v>
+        <v>46621.6494876652</v>
       </c>
       <c r="E31" t="n">
-        <v>113492.348123143</v>
+        <v>115249.822996899</v>
       </c>
       <c r="F31" t="n">
-        <v>129454.470601811</v>
+        <v>132045.023680463</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1373,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>18612.4623315548</v>
+        <v>18787.80010812</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>84035.4384313675</v>
+        <v>84650.0870070331</v>
       </c>
       <c r="C32" t="n">
-        <v>55673.0418932895</v>
+        <v>56163.0977825646</v>
       </c>
       <c r="D32" t="n">
-        <v>38864.9131255593</v>
+        <v>42531.3652346209</v>
       </c>
       <c r="E32" t="n">
-        <v>113749.247126638</v>
+        <v>114535.022508536</v>
       </c>
       <c r="F32" t="n">
-        <v>125721.651471601</v>
+        <v>129933.237866807</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1405,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>12613.4384313675</v>
+        <v>13228.0870070331</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>81237.8676079526</v>
+        <v>81631.29795745</v>
       </c>
       <c r="C33" t="n">
-        <v>50896.7728860144</v>
+        <v>51237.4709343496</v>
       </c>
       <c r="D33" t="n">
-        <v>33617.3126500974</v>
+        <v>37911.3008661225</v>
       </c>
       <c r="E33" t="n">
-        <v>110445.745243935</v>
+        <v>111905.407485544</v>
       </c>
       <c r="F33" t="n">
-        <v>123497.165960074</v>
+        <v>127194.831649555</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1437,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>12218.8676079526</v>
+        <v>12612.29795745</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>76641.1686034532</v>
+        <v>77344.5586171899</v>
       </c>
       <c r="C34" t="n">
-        <v>46161.120237611</v>
+        <v>45813.0139451281</v>
       </c>
       <c r="D34" t="n">
-        <v>27111.0978664634</v>
+        <v>31177.8035506399</v>
       </c>
       <c r="E34" t="n">
-        <v>107038.263420523</v>
+        <v>109408.636636133</v>
       </c>
       <c r="F34" t="n">
-        <v>119919.168363514</v>
+        <v>120631.772593758</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1469,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>18003.1686034532</v>
+        <v>18706.5586171899</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>73759.9311546981</v>
+        <v>74251.9330816249</v>
       </c>
       <c r="C35" t="n">
-        <v>43394.4157853755</v>
+        <v>43685.4631092025</v>
       </c>
       <c r="D35" t="n">
-        <v>18771.6345809668</v>
+        <v>27548.6356531166</v>
       </c>
       <c r="E35" t="n">
-        <v>105730.813892709</v>
+        <v>106518.083772721</v>
       </c>
       <c r="F35" t="n">
-        <v>117375.658537428</v>
+        <v>121173.82777679</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1501,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>22634.9311546981</v>
+        <v>23126.9330816249</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>70779.0279131081</v>
+        <v>71330.6949405716</v>
       </c>
       <c r="C36" t="n">
-        <v>39377.2538745749</v>
+        <v>41236.0682195254</v>
       </c>
       <c r="D36" t="n">
-        <v>17555.769296063</v>
+        <v>25807.0703391357</v>
       </c>
       <c r="E36" t="n">
-        <v>101754.218364417</v>
+        <v>103730.364013918</v>
       </c>
       <c r="F36" t="n">
-        <v>117349.689997773</v>
+        <v>120023.703887305</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1533,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>22427.0279131081</v>
+        <v>22978.6949405716</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93850.519611571</v>
+        <v>93931.4318749212</v>
       </c>
       <c r="C2" t="n">
-        <v>87021.9958480873</v>
+        <v>86503.6388851971</v>
       </c>
       <c r="D2" t="n">
-        <v>82439.2631088903</v>
+        <v>84164.995267861</v>
       </c>
       <c r="E2" t="n">
-        <v>100841.073031735</v>
+        <v>100628.085712148</v>
       </c>
       <c r="F2" t="n">
-        <v>104842.783755086</v>
+        <v>103914.174809061</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26168.519611571</v>
+        <v>26249.4318749212</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>82058.9044285424</v>
+        <v>82216.7135200123</v>
       </c>
       <c r="C3" t="n">
-        <v>73933.3628564269</v>
+        <v>73738.9615971791</v>
       </c>
       <c r="D3" t="n">
-        <v>69595.4606895165</v>
+        <v>69207.3413648252</v>
       </c>
       <c r="E3" t="n">
-        <v>90777.1805491741</v>
+        <v>90475.1655511529</v>
       </c>
       <c r="F3" t="n">
-        <v>95446.0898514091</v>
+        <v>95854.9893804477</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>37125.9044285424</v>
+        <v>37283.7135200123</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>100515.00227493</v>
+        <v>100466.974104554</v>
       </c>
       <c r="C4" t="n">
-        <v>91963.9204135802</v>
+        <v>91179.8872300076</v>
       </c>
       <c r="D4" t="n">
-        <v>87018.3086186855</v>
+        <v>86621.5911346042</v>
       </c>
       <c r="E4" t="n">
-        <v>109757.760438968</v>
+        <v>110121.819573191</v>
       </c>
       <c r="F4" t="n">
-        <v>115323.393063945</v>
+        <v>115411.514841414</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>27088.0022749296</v>
+        <v>27039.9741045539</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>95469.4177816844</v>
+        <v>95349.9623712417</v>
       </c>
       <c r="C5" t="n">
-        <v>85492.7380381148</v>
+        <v>84281.0930316628</v>
       </c>
       <c r="D5" t="n">
-        <v>78946.1492414165</v>
+        <v>76875.5177974729</v>
       </c>
       <c r="E5" t="n">
-        <v>106079.412213712</v>
+        <v>107037.516780768</v>
       </c>
       <c r="F5" t="n">
-        <v>111502.460108403</v>
+        <v>112601.359011576</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>9785.41778168439</v>
+        <v>9665.96237124165</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>92429.9885670524</v>
+        <v>92146.9673657249</v>
       </c>
       <c r="C6" t="n">
-        <v>81817.8154140367</v>
+        <v>81073.4067676539</v>
       </c>
       <c r="D6" t="n">
-        <v>74192.6608940755</v>
+        <v>75442.030185782</v>
       </c>
       <c r="E6" t="n">
-        <v>103703.9051347</v>
+        <v>104709.808668048</v>
       </c>
       <c r="F6" t="n">
-        <v>109252.071005848</v>
+        <v>109247.946536051</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>9044.98856705239</v>
+        <v>8761.96736572488</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>88426.8877250492</v>
+        <v>88434.8277645253</v>
       </c>
       <c r="C7" t="n">
-        <v>76349.2863324514</v>
+        <v>75004.6684334111</v>
       </c>
       <c r="D7" t="n">
-        <v>70041.9908730369</v>
+        <v>68705.57270916</v>
       </c>
       <c r="E7" t="n">
-        <v>100267.323681371</v>
+        <v>101375.317787321</v>
       </c>
       <c r="F7" t="n">
-        <v>105455.582525986</v>
+        <v>106862.469515942</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>3474.88772504918</v>
+        <v>3482.82776452528</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>86133.4440846094</v>
+        <v>85717.831842526</v>
       </c>
       <c r="C8" t="n">
-        <v>74409.6140251833</v>
+        <v>73261.0338370031</v>
       </c>
       <c r="D8" t="n">
-        <v>64706.7236953693</v>
+        <v>63895.6356015008</v>
       </c>
       <c r="E8" t="n">
-        <v>98753.0074764712</v>
+        <v>99371.2996876576</v>
       </c>
       <c r="F8" t="n">
-        <v>106008.430186836</v>
+        <v>105737.64973671</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>9710.44408460939</v>
+        <v>9294.83184252602</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>83307.2981857205</v>
+        <v>83212.8403763961</v>
       </c>
       <c r="C9" t="n">
-        <v>69575.9880126221</v>
+        <v>69146.0403076795</v>
       </c>
       <c r="D9" t="n">
-        <v>63876.4364639429</v>
+        <v>60773.7437435415</v>
       </c>
       <c r="E9" t="n">
-        <v>97033.0813301349</v>
+        <v>97073.4383526473</v>
       </c>
       <c r="F9" t="n">
-        <v>102856.63694693</v>
+        <v>105559.399932631</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>206.298185720501</v>
+        <v>111.84037639614</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78913.9851100385</v>
+        <v>78602.9790867665</v>
       </c>
       <c r="C10" t="n">
-        <v>64169.3898580776</v>
+        <v>63406.2427485394</v>
       </c>
       <c r="D10" t="n">
-        <v>56687.1597593266</v>
+        <v>54591.2126639985</v>
       </c>
       <c r="E10" t="n">
-        <v>93107.6134236543</v>
+        <v>93267.181802524</v>
       </c>
       <c r="F10" t="n">
-        <v>101413.408413955</v>
+        <v>99579.9644412213</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>3504.98511003853</v>
+        <v>3193.97908676651</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>76175.0769703574</v>
+        <v>75622.9215893728</v>
       </c>
       <c r="C11" t="n">
-        <v>60578.014513713</v>
+        <v>60516.6982655508</v>
       </c>
       <c r="D11" t="n">
-        <v>53804.2479374607</v>
+        <v>54082.4115277441</v>
       </c>
       <c r="E11" t="n">
-        <v>92075.4658689597</v>
+        <v>89908.3127597121</v>
       </c>
       <c r="F11" t="n">
-        <v>100390.255791345</v>
+        <v>98762.8605666366</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>8332.07697035736</v>
+        <v>7779.92158937284</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>73761.1728093164</v>
+        <v>72776.7327597802</v>
       </c>
       <c r="C12" t="n">
-        <v>57270.2545975679</v>
+        <v>56048.4716948529</v>
       </c>
       <c r="D12" t="n">
-        <v>48892.379321079</v>
+        <v>48753.0857717412</v>
       </c>
       <c r="E12" t="n">
-        <v>89676.9096079617</v>
+        <v>89677.2721980307</v>
       </c>
       <c r="F12" t="n">
-        <v>99655.9192883376</v>
+        <v>97210.8900981554</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>4121.1728093164</v>
+        <v>3136.73275978022</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70781.4297569676</v>
+        <v>70025.6191436252</v>
       </c>
       <c r="C13" t="n">
-        <v>53010.5410228179</v>
+        <v>52143.6222703638</v>
       </c>
       <c r="D13" t="n">
-        <v>47767.4515533449</v>
+        <v>46007.8450430411</v>
       </c>
       <c r="E13" t="n">
-        <v>87418.406134045</v>
+        <v>86755.6795241811</v>
       </c>
       <c r="F13" t="n">
-        <v>95873.7926433369</v>
+        <v>96222.5060587386</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>6684.42975696763</v>
+        <v>5928.61914362515</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>93525.9948742626</v>
+        <v>92728.2343296304</v>
       </c>
       <c r="C14" t="n">
-        <v>75094.185104167</v>
+        <v>74213.1254112527</v>
       </c>
       <c r="D14" t="n">
-        <v>68631.293542025</v>
+        <v>66550.8653239005</v>
       </c>
       <c r="E14" t="n">
-        <v>110763.911554181</v>
+        <v>110388.232130664</v>
       </c>
       <c r="F14" t="n">
-        <v>119219.415665847</v>
+        <v>122089.674519596</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>28712.9948742626</v>
+        <v>27915.2343296304</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>81021.5729418028</v>
+        <v>80422.5391357891</v>
       </c>
       <c r="C15" t="n">
-        <v>61883.6201254791</v>
+        <v>61484.2410507972</v>
       </c>
       <c r="D15" t="n">
-        <v>53533.7996593795</v>
+        <v>53060.2952439204</v>
       </c>
       <c r="E15" t="n">
-        <v>98836.1461687179</v>
+        <v>99660.1749665397</v>
       </c>
       <c r="F15" t="n">
-        <v>108254.411458311</v>
+        <v>108113.061217942</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>25596.5729418028</v>
+        <v>24997.5391357891</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>99567.1072069245</v>
+        <v>98987.0284090038</v>
       </c>
       <c r="C16" t="n">
-        <v>81238.2876659265</v>
+        <v>80658.3251262906</v>
       </c>
       <c r="D16" t="n">
-        <v>72558.762244723</v>
+        <v>70114.4210566908</v>
       </c>
       <c r="E16" t="n">
-        <v>119198.403574133</v>
+        <v>118824.060274</v>
       </c>
       <c r="F16" t="n">
-        <v>126749.774535356</v>
+        <v>129435.011652515</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>18764.1072069245</v>
+        <v>18184.0284090038</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>94041.349089072</v>
+        <v>94058.8191518284</v>
       </c>
       <c r="C17" t="n">
-        <v>74694.9078690664</v>
+        <v>75397.0001110207</v>
       </c>
       <c r="D17" t="n">
-        <v>66429.682590686</v>
+        <v>64582.5074496428</v>
       </c>
       <c r="E17" t="n">
-        <v>113519.298385763</v>
+        <v>114249.489185748</v>
       </c>
       <c r="F17" t="n">
-        <v>119753.332656951</v>
+        <v>125243.409946472</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>13493.349089072</v>
+        <v>13510.8191518284</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>91151.8413947225</v>
+        <v>90560.7788877897</v>
       </c>
       <c r="C18" t="n">
-        <v>71427.1354087142</v>
+        <v>70763.0983308977</v>
       </c>
       <c r="D18" t="n">
-        <v>61865.4471894079</v>
+        <v>60728.1306118799</v>
       </c>
       <c r="E18" t="n">
-        <v>112139.063616968</v>
+        <v>110476.765142685</v>
       </c>
       <c r="F18" t="n">
-        <v>120180.459931503</v>
+        <v>124215.03554628</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>15908.8413947225</v>
+        <v>15317.7788877897</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>87274.4545153697</v>
+        <v>87135.4378757672</v>
       </c>
       <c r="C19" t="n">
-        <v>67928.644439488</v>
+        <v>67241.6133741791</v>
       </c>
       <c r="D19" t="n">
-        <v>57114.1393403668</v>
+        <v>57806.9504241809</v>
       </c>
       <c r="E19" t="n">
-        <v>106795.935213423</v>
+        <v>108937.838446625</v>
       </c>
       <c r="F19" t="n">
-        <v>117325.529802232</v>
+        <v>119171.725842608</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>13390.4545153697</v>
+        <v>13251.4378757672</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>85512.8593873759</v>
+        <v>84619.7940767168</v>
       </c>
       <c r="C20" t="n">
-        <v>63868.9789137128</v>
+        <v>62313.2235395194</v>
       </c>
       <c r="D20" t="n">
-        <v>54992.2810463371</v>
+        <v>51306.603752843</v>
       </c>
       <c r="E20" t="n">
-        <v>106981.485348393</v>
+        <v>107120.044411026</v>
       </c>
       <c r="F20" t="n">
-        <v>116690.186029635</v>
+        <v>114853.169953224</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>8864.85938737592</v>
+        <v>7971.79407671685</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>82291.4431870283</v>
+        <v>81650.2948866201</v>
       </c>
       <c r="C21" t="n">
-        <v>61395.4883244812</v>
+        <v>60304.3241505935</v>
       </c>
       <c r="D21" t="n">
-        <v>50571.5640437711</v>
+        <v>50159.3371988698</v>
       </c>
       <c r="E21" t="n">
-        <v>104276.440523706</v>
+        <v>103420.214907185</v>
       </c>
       <c r="F21" t="n">
-        <v>114687.796184419</v>
+        <v>114808.741323622</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>14325.4431870283</v>
+        <v>13684.2948866201</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>78014.225677676</v>
+        <v>77539.7902678505</v>
       </c>
       <c r="C22" t="n">
-        <v>56758.3608156742</v>
+        <v>55805.5840650634</v>
       </c>
       <c r="D22" t="n">
-        <v>44855.1237552094</v>
+        <v>45143.1560541724</v>
       </c>
       <c r="E22" t="n">
-        <v>99908.2285419733</v>
+        <v>101268.094697793</v>
       </c>
       <c r="F22" t="n">
-        <v>111672.104085172</v>
+        <v>111409.396107722</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>10202.225677676</v>
+        <v>9727.79026785048</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>75303.2136936446</v>
+        <v>74461.4382463439</v>
       </c>
       <c r="C23" t="n">
-        <v>52133.7073050686</v>
+        <v>52652.3981781823</v>
       </c>
       <c r="D23" t="n">
-        <v>40769.4555519492</v>
+        <v>41312.6805490641</v>
       </c>
       <c r="E23" t="n">
-        <v>98313.2641274354</v>
+        <v>99322.9065906072</v>
       </c>
       <c r="F23" t="n">
-        <v>111842.473574288</v>
+        <v>111614.734141121</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>13912.2136936446</v>
+        <v>13070.4382463439</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>72630.9330884545</v>
+        <v>72071.8224786957</v>
       </c>
       <c r="C24" t="n">
-        <v>49537.879403679</v>
+        <v>49156.3342683703</v>
       </c>
       <c r="D24" t="n">
-        <v>38740.3417101729</v>
+        <v>38304.87185929</v>
       </c>
       <c r="E24" t="n">
-        <v>97466.5322788699</v>
+        <v>98715.0963087268</v>
       </c>
       <c r="F24" t="n">
-        <v>110872.787123141</v>
+        <v>109304.25450518</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>10877.9330884545</v>
+        <v>10318.8224786957</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>70316.2076948419</v>
+        <v>69530.6509993738</v>
       </c>
       <c r="C25" t="n">
-        <v>45328.632363292</v>
+        <v>46371.8378555504</v>
       </c>
       <c r="D25" t="n">
-        <v>34881.4064014712</v>
+        <v>32641.8427360606</v>
       </c>
       <c r="E25" t="n">
-        <v>95029.127538586</v>
+        <v>93292.5983353156</v>
       </c>
       <c r="F25" t="n">
-        <v>107754.123464083</v>
+        <v>105022.808607202</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>8528.20769484187</v>
+        <v>7742.65099937381</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>92929.2417559734</v>
+        <v>92369.4888162361</v>
       </c>
       <c r="C26" t="n">
-        <v>67099.6091928047</v>
+        <v>67347.709316762</v>
       </c>
       <c r="D26" t="n">
-        <v>57772.4142107325</v>
+        <v>56642.6246206509</v>
       </c>
       <c r="E26" t="n">
-        <v>118002.692857688</v>
+        <v>118269.273503359</v>
       </c>
       <c r="F26" t="n">
-        <v>128378.404189287</v>
+        <v>133624.157286111</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>31232.2417559734</v>
+        <v>30672.4888162361</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>80088.2272783587</v>
+        <v>80227.2299743169</v>
       </c>
       <c r="C27" t="n">
-        <v>54802.3384479907</v>
+        <v>55915.512113248</v>
       </c>
       <c r="D27" t="n">
-        <v>41214.7623250039</v>
+        <v>43470.7435629696</v>
       </c>
       <c r="E27" t="n">
-        <v>106729.826017011</v>
+        <v>107268.632683097</v>
       </c>
       <c r="F27" t="n">
-        <v>119187.211694808</v>
+        <v>120719.053020035</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>27492.2272783587</v>
+        <v>27631.2299743169</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>98871.0172579906</v>
+        <v>98530.3620118924</v>
       </c>
       <c r="C28" t="n">
-        <v>73141.5160714366</v>
+        <v>74238.8007662595</v>
       </c>
       <c r="D28" t="n">
-        <v>59322.0740702428</v>
+        <v>60985.11408871</v>
       </c>
       <c r="E28" t="n">
-        <v>126326.621279374</v>
+        <v>124339.337456527</v>
       </c>
       <c r="F28" t="n">
-        <v>139736.385530184</v>
+        <v>142101.113840406</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>25761.0172579906</v>
+        <v>25420.3620118924</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>93419.704346744</v>
+        <v>93457.1905702814</v>
       </c>
       <c r="C29" t="n">
-        <v>67280.6301395665</v>
+        <v>66730.5876463508</v>
       </c>
       <c r="D29" t="n">
-        <v>54088.8065479771</v>
+        <v>56133.2176861823</v>
       </c>
       <c r="E29" t="n">
-        <v>122724.024078187</v>
+        <v>120381.411696577</v>
       </c>
       <c r="F29" t="n">
-        <v>131287.542194489</v>
+        <v>135701.538331435</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>32234.704346744</v>
+        <v>32272.1905702814</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>90188.7824118524</v>
+        <v>90427.109689059</v>
       </c>
       <c r="C30" t="n">
-        <v>62011.8808057257</v>
+        <v>62345.2954545307</v>
       </c>
       <c r="D30" t="n">
-        <v>49745.5345760011</v>
+        <v>51272.4969763588</v>
       </c>
       <c r="E30" t="n">
-        <v>118015.723283959</v>
+        <v>118102.736864269</v>
       </c>
       <c r="F30" t="n">
-        <v>131792.057625113</v>
+        <v>132321.723580866</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>26598.7824118524</v>
+        <v>26837.109689059</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>86688.80010812</v>
+        <v>86738.2247898581</v>
       </c>
       <c r="C31" t="n">
-        <v>58455.1367033584</v>
+        <v>59146.7916627366</v>
       </c>
       <c r="D31" t="n">
-        <v>46621.6494876652</v>
+        <v>46232.3030172308</v>
       </c>
       <c r="E31" t="n">
-        <v>115249.822996899</v>
+        <v>115007.160373708</v>
       </c>
       <c r="F31" t="n">
-        <v>132045.023680463</v>
+        <v>127726.734857254</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>18787.80010812</v>
+        <v>18837.2247898581</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>84650.0870070331</v>
+        <v>84913.3844308019</v>
       </c>
       <c r="C32" t="n">
-        <v>56163.0977825646</v>
+        <v>57339.5887843524</v>
       </c>
       <c r="D32" t="n">
-        <v>42531.3652346209</v>
+        <v>41778.0761224405</v>
       </c>
       <c r="E32" t="n">
-        <v>114535.022508536</v>
+        <v>113299.281854221</v>
       </c>
       <c r="F32" t="n">
-        <v>129933.237866807</v>
+        <v>128423.410706213</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>13228.0870070331</v>
+        <v>13491.3844308019</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>81631.29795745</v>
+        <v>81611.2457664021</v>
       </c>
       <c r="C33" t="n">
-        <v>51237.4709343496</v>
+        <v>52141.0338431774</v>
       </c>
       <c r="D33" t="n">
-        <v>37911.3008661225</v>
+        <v>39362.1196753327</v>
       </c>
       <c r="E33" t="n">
-        <v>111905.407485544</v>
+        <v>111810.036113826</v>
       </c>
       <c r="F33" t="n">
-        <v>127194.831649555</v>
+        <v>125647.669039552</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>12612.29795745</v>
+        <v>12592.2457664021</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>77344.5586171899</v>
+        <v>77093.78098185</v>
       </c>
       <c r="C34" t="n">
-        <v>45813.0139451281</v>
+        <v>48185.2250373541</v>
       </c>
       <c r="D34" t="n">
-        <v>31177.8035506399</v>
+        <v>34419.0967970403</v>
       </c>
       <c r="E34" t="n">
-        <v>109408.636636133</v>
+        <v>107064.53376431</v>
       </c>
       <c r="F34" t="n">
-        <v>120631.772593758</v>
+        <v>122141.63959091</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>18706.5586171899</v>
+        <v>18455.78098185</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>74251.9330816249</v>
+        <v>73902.0042353699</v>
       </c>
       <c r="C35" t="n">
-        <v>43685.4631092025</v>
+        <v>45203.0935429047</v>
       </c>
       <c r="D35" t="n">
-        <v>27548.6356531166</v>
+        <v>29373.5594149021</v>
       </c>
       <c r="E35" t="n">
-        <v>106518.083772721</v>
+        <v>102721.645121219</v>
       </c>
       <c r="F35" t="n">
-        <v>121173.82777679</v>
+        <v>122071.31204553</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>23126.9330816249</v>
+        <v>22777.0042353699</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>71330.6949405716</v>
+        <v>71097.0455185998</v>
       </c>
       <c r="C36" t="n">
-        <v>41236.0682195254</v>
+        <v>40200.0273084537</v>
       </c>
       <c r="D36" t="n">
-        <v>25807.0703391357</v>
+        <v>24441.4735781971</v>
       </c>
       <c r="E36" t="n">
-        <v>103730.364013918</v>
+        <v>102487.017820081</v>
       </c>
       <c r="F36" t="n">
-        <v>120023.703887305</v>
+        <v>119897.421497018</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>22978.6949405716</v>
+        <v>22745.0455185998</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -424,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93931.4318749212</v>
+        <v>93808.5747798785</v>
       </c>
       <c r="C2" t="n">
-        <v>86503.6388851971</v>
+        <v>87140.6374348858</v>
       </c>
       <c r="D2" t="n">
-        <v>84164.995267861</v>
+        <v>82983.3242526647</v>
       </c>
       <c r="E2" t="n">
-        <v>100628.085712148</v>
+        <v>100615.727426273</v>
       </c>
       <c r="F2" t="n">
-        <v>103914.174809061</v>
+        <v>104348.201201336</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +448,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26249.4318749212</v>
+        <v>26126.5747798785</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>82216.7135200123</v>
+        <v>81938.6488356682</v>
       </c>
       <c r="C3" t="n">
-        <v>73738.9615971791</v>
+        <v>73242.9581934713</v>
       </c>
       <c r="D3" t="n">
-        <v>69207.3413648252</v>
+        <v>69222.7216396877</v>
       </c>
       <c r="E3" t="n">
-        <v>90475.1655511529</v>
+        <v>90567.4932912069</v>
       </c>
       <c r="F3" t="n">
-        <v>95854.9893804477</v>
+        <v>95908.2405362799</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +480,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>37283.7135200123</v>
+        <v>37005.6488356682</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>100466.974104554</v>
+        <v>100432.941857624</v>
       </c>
       <c r="C4" t="n">
-        <v>91179.8872300076</v>
+        <v>90733.4499395304</v>
       </c>
       <c r="D4" t="n">
-        <v>86621.5911346042</v>
+        <v>85949.7836003909</v>
       </c>
       <c r="E4" t="n">
-        <v>110121.819573191</v>
+        <v>109856.546786503</v>
       </c>
       <c r="F4" t="n">
-        <v>115411.514841414</v>
+        <v>113489.420944162</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +512,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>27039.9741045539</v>
+        <v>27005.9418576239</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>95349.9623712417</v>
+        <v>94560.8545689025</v>
       </c>
       <c r="C5" t="n">
-        <v>84281.0930316628</v>
+        <v>84576.9563051757</v>
       </c>
       <c r="D5" t="n">
-        <v>76875.5177974729</v>
+        <v>78786.6769134825</v>
       </c>
       <c r="E5" t="n">
-        <v>107037.516780768</v>
+        <v>104523.802678805</v>
       </c>
       <c r="F5" t="n">
-        <v>112601.359011576</v>
+        <v>111314.901509281</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +544,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>9665.96237124165</v>
+        <v>8876.8545689025</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>92146.9673657249</v>
+        <v>91776.4330886232</v>
       </c>
       <c r="C6" t="n">
-        <v>81073.4067676539</v>
+        <v>81471.1544090262</v>
       </c>
       <c r="D6" t="n">
-        <v>75442.030185782</v>
+        <v>77464.388517755</v>
       </c>
       <c r="E6" t="n">
-        <v>104709.808668048</v>
+        <v>103017.45066909</v>
       </c>
       <c r="F6" t="n">
-        <v>109247.946536051</v>
+        <v>108514.661986138</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +576,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8761.96736572488</v>
+        <v>8391.43308862316</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>88434.8277645253</v>
+        <v>88250.8360727749</v>
       </c>
       <c r="C7" t="n">
-        <v>75004.6684334111</v>
+        <v>76084.9513502579</v>
       </c>
       <c r="D7" t="n">
-        <v>68705.57270916</v>
+        <v>71350.922191625</v>
       </c>
       <c r="E7" t="n">
-        <v>101375.317787321</v>
+        <v>101351.240654538</v>
       </c>
       <c r="F7" t="n">
-        <v>106862.469515942</v>
+        <v>105311.604319254</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +608,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>3482.82776452528</v>
+        <v>3298.83607277485</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85717.831842526</v>
+        <v>85576.6362143857</v>
       </c>
       <c r="C8" t="n">
-        <v>73261.0338370031</v>
+        <v>73152.4334433586</v>
       </c>
       <c r="D8" t="n">
-        <v>63895.6356015008</v>
+        <v>68141.16851251</v>
       </c>
       <c r="E8" t="n">
-        <v>99371.2996876576</v>
+        <v>98068.1476345396</v>
       </c>
       <c r="F8" t="n">
-        <v>105737.64973671</v>
+        <v>104493.350983359</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +640,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>9294.83184252602</v>
+        <v>9153.6362143857</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>83212.8403763961</v>
+        <v>82706.0764225351</v>
       </c>
       <c r="C9" t="n">
-        <v>69146.0403076795</v>
+        <v>69291.4741737616</v>
       </c>
       <c r="D9" t="n">
-        <v>60773.7437435415</v>
+        <v>62880.4127624177</v>
       </c>
       <c r="E9" t="n">
-        <v>97073.4383526473</v>
+        <v>96430.9080054354</v>
       </c>
       <c r="F9" t="n">
-        <v>105559.399932631</v>
+        <v>104498.520387003</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,10 +672,10 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>111.84037639614</v>
+        <v>-394.923577464899</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -680,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78602.9790867665</v>
+        <v>78394.3887722991</v>
       </c>
       <c r="C10" t="n">
-        <v>63406.2427485394</v>
+        <v>63740.6465597466</v>
       </c>
       <c r="D10" t="n">
-        <v>54591.2126639985</v>
+        <v>57084.2976072263</v>
       </c>
       <c r="E10" t="n">
-        <v>93267.181802524</v>
+        <v>93443.8370118266</v>
       </c>
       <c r="F10" t="n">
-        <v>99579.9644412213</v>
+        <v>100525.555497602</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +704,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>3193.97908676651</v>
+        <v>2985.38877229911</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>75622.9215893728</v>
+        <v>74950.449661315</v>
       </c>
       <c r="C11" t="n">
-        <v>60516.6982655508</v>
+        <v>59748.4247868562</v>
       </c>
       <c r="D11" t="n">
-        <v>54082.4115277441</v>
+        <v>50381.8733843071</v>
       </c>
       <c r="E11" t="n">
-        <v>89908.3127597121</v>
+        <v>90254.699580736</v>
       </c>
       <c r="F11" t="n">
-        <v>98762.8605666366</v>
+        <v>98864.1306777181</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +736,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7779.92158937284</v>
+        <v>7107.44966131504</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72776.7327597802</v>
+        <v>72524.6815848434</v>
       </c>
       <c r="C12" t="n">
-        <v>56048.4716948529</v>
+        <v>55966.9509040672</v>
       </c>
       <c r="D12" t="n">
-        <v>48753.0857717412</v>
+        <v>48931.5163162043</v>
       </c>
       <c r="E12" t="n">
-        <v>89677.2721980307</v>
+        <v>89348.215911928</v>
       </c>
       <c r="F12" t="n">
-        <v>97210.8900981554</v>
+        <v>96758.7918118711</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +768,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>3136.73275978022</v>
+        <v>2884.68158484342</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70025.6191436252</v>
+        <v>70477.1337675664</v>
       </c>
       <c r="C13" t="n">
-        <v>52143.6222703638</v>
+        <v>54067.6662707259</v>
       </c>
       <c r="D13" t="n">
-        <v>46007.8450430411</v>
+        <v>44816.1898471788</v>
       </c>
       <c r="E13" t="n">
-        <v>86755.6795241811</v>
+        <v>87816.0318298533</v>
       </c>
       <c r="F13" t="n">
-        <v>96222.5060587386</v>
+        <v>95188.0976723302</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +800,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>5928.61914362515</v>
+        <v>6380.13376756638</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>92728.2343296304</v>
+        <v>93194.872759437</v>
       </c>
       <c r="C14" t="n">
-        <v>74213.1254112527</v>
+        <v>75547.1985356324</v>
       </c>
       <c r="D14" t="n">
-        <v>66550.8653239005</v>
+        <v>63671.2041999541</v>
       </c>
       <c r="E14" t="n">
-        <v>110388.232130664</v>
+        <v>111939.956750592</v>
       </c>
       <c r="F14" t="n">
-        <v>122089.674519596</v>
+        <v>119668.718015972</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +832,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>27915.2343296304</v>
+        <v>28381.872759437</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>80422.5391357891</v>
+        <v>81111.1123089457</v>
       </c>
       <c r="C15" t="n">
-        <v>61484.2410507972</v>
+        <v>62288.2622112091</v>
       </c>
       <c r="D15" t="n">
-        <v>53060.2952439204</v>
+        <v>50778.2450659036</v>
       </c>
       <c r="E15" t="n">
-        <v>99660.1749665397</v>
+        <v>99545.706316135</v>
       </c>
       <c r="F15" t="n">
-        <v>108113.061217942</v>
+        <v>110778.14816481</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +864,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>24997.5391357891</v>
+        <v>25686.1123089457</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>98987.0284090038</v>
+        <v>99606.0602005119</v>
       </c>
       <c r="C16" t="n">
-        <v>80658.3251262906</v>
+        <v>81558.7979148275</v>
       </c>
       <c r="D16" t="n">
-        <v>70114.4210566908</v>
+        <v>66695.912378293</v>
       </c>
       <c r="E16" t="n">
-        <v>118824.060274</v>
+        <v>120711.337567193</v>
       </c>
       <c r="F16" t="n">
-        <v>129435.011652515</v>
+        <v>128404.732389151</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +896,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>18184.0284090038</v>
+        <v>18803.0602005119</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>94058.8191518284</v>
+        <v>94191.0993078739</v>
       </c>
       <c r="C17" t="n">
-        <v>75397.0001110207</v>
+        <v>74556.3125110041</v>
       </c>
       <c r="D17" t="n">
-        <v>64582.5074496428</v>
+        <v>62963.4497352186</v>
       </c>
       <c r="E17" t="n">
-        <v>114249.489185748</v>
+        <v>114940.432791866</v>
       </c>
       <c r="F17" t="n">
-        <v>125243.409946472</v>
+        <v>125520.290127945</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +928,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>13510.8191518284</v>
+        <v>13643.0993078739</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>90560.7788877897</v>
+        <v>91301.4570305984</v>
       </c>
       <c r="C18" t="n">
-        <v>70763.0983308977</v>
+        <v>71335.6529035927</v>
       </c>
       <c r="D18" t="n">
-        <v>60728.1306118799</v>
+        <v>58915.4204257393</v>
       </c>
       <c r="E18" t="n">
-        <v>110476.765142685</v>
+        <v>112644.171932369</v>
       </c>
       <c r="F18" t="n">
-        <v>124215.03554628</v>
+        <v>126642.046165</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +960,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>15317.7788877897</v>
+        <v>16058.4570305984</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>87135.4378757672</v>
+        <v>87508.1280563641</v>
       </c>
       <c r="C19" t="n">
-        <v>67241.6133741791</v>
+        <v>67176.4195203344</v>
       </c>
       <c r="D19" t="n">
-        <v>57806.9504241809</v>
+        <v>52199.8429723692</v>
       </c>
       <c r="E19" t="n">
-        <v>108937.838446625</v>
+        <v>109893.403961423</v>
       </c>
       <c r="F19" t="n">
-        <v>119171.725842608</v>
+        <v>120235.251149064</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +992,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>13251.4378757672</v>
+        <v>13624.1280563641</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84619.7940767168</v>
+        <v>84827.3962719172</v>
       </c>
       <c r="C20" t="n">
-        <v>62313.2235395194</v>
+        <v>65236.2750507473</v>
       </c>
       <c r="D20" t="n">
-        <v>51306.603752843</v>
+        <v>52366.856394096</v>
       </c>
       <c r="E20" t="n">
-        <v>107120.044411026</v>
+        <v>106871.155277433</v>
       </c>
       <c r="F20" t="n">
-        <v>114853.169953224</v>
+        <v>118342.376020943</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1024,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>7971.79407671685</v>
+        <v>8179.39627191718</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81650.2948866201</v>
+        <v>81599.0631883529</v>
       </c>
       <c r="C21" t="n">
-        <v>60304.3241505935</v>
+        <v>60389.3642550633</v>
       </c>
       <c r="D21" t="n">
-        <v>50159.3371988698</v>
+        <v>47204.0363046707</v>
       </c>
       <c r="E21" t="n">
-        <v>103420.214907185</v>
+        <v>104416.168390422</v>
       </c>
       <c r="F21" t="n">
-        <v>114808.741323622</v>
+        <v>114204.197771157</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1056,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13684.2948866201</v>
+        <v>13633.0631883529</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77539.7902678505</v>
+        <v>77384.0620934676</v>
       </c>
       <c r="C22" t="n">
-        <v>55805.5840650634</v>
+        <v>55220.1470235338</v>
       </c>
       <c r="D22" t="n">
-        <v>45143.1560541724</v>
+        <v>40297.9030279549</v>
       </c>
       <c r="E22" t="n">
-        <v>101268.094697793</v>
+        <v>101060.915280857</v>
       </c>
       <c r="F22" t="n">
-        <v>111409.396107722</v>
+        <v>111457.889014531</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1088,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9727.79026785048</v>
+        <v>9572.06209346763</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74461.4382463439</v>
+        <v>74119.1168580496</v>
       </c>
       <c r="C23" t="n">
-        <v>52652.3981781823</v>
+        <v>50438.3644505654</v>
       </c>
       <c r="D23" t="n">
-        <v>41312.6805490641</v>
+        <v>36047.040591904</v>
       </c>
       <c r="E23" t="n">
-        <v>99322.9065906072</v>
+        <v>100655.603091461</v>
       </c>
       <c r="F23" t="n">
-        <v>111614.734141121</v>
+        <v>110835.912800423</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1120,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>13070.4382463439</v>
+        <v>12728.1168580496</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>72071.8224786957</v>
+        <v>71555.8219952033</v>
       </c>
       <c r="C24" t="n">
-        <v>49156.3342683703</v>
+        <v>48960.1291283509</v>
       </c>
       <c r="D24" t="n">
-        <v>38304.87185929</v>
+        <v>31556.1246624584</v>
       </c>
       <c r="E24" t="n">
-        <v>98715.0963087268</v>
+        <v>96709.0427978285</v>
       </c>
       <c r="F24" t="n">
-        <v>109304.25450518</v>
+        <v>106788.828289891</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1152,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>10318.8224786957</v>
+        <v>9802.82199520331</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>69530.6509993738</v>
+        <v>68658.4285048297</v>
       </c>
       <c r="C25" t="n">
-        <v>46371.8378555504</v>
+        <v>44369.3830616783</v>
       </c>
       <c r="D25" t="n">
-        <v>32641.8427360606</v>
+        <v>30155.9761300143</v>
       </c>
       <c r="E25" t="n">
-        <v>93292.5983353156</v>
+        <v>92808.9050943725</v>
       </c>
       <c r="F25" t="n">
-        <v>105022.808607202</v>
+        <v>104057.397083922</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1184,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>7742.65099937381</v>
+        <v>6870.42850482972</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>92369.4888162361</v>
+        <v>91716.7560242062</v>
       </c>
       <c r="C26" t="n">
-        <v>67347.709316762</v>
+        <v>66886.8613269766</v>
       </c>
       <c r="D26" t="n">
-        <v>56642.6246206509</v>
+        <v>52334.9780978448</v>
       </c>
       <c r="E26" t="n">
-        <v>118269.273503359</v>
+        <v>119003.774578208</v>
       </c>
       <c r="F26" t="n">
-        <v>133624.157286111</v>
+        <v>129631.139913734</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1216,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>30672.4888162361</v>
+        <v>30019.7560242062</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>80227.2299743169</v>
+        <v>79799.8827584476</v>
       </c>
       <c r="C27" t="n">
-        <v>55915.512113248</v>
+        <v>53975.6540624367</v>
       </c>
       <c r="D27" t="n">
-        <v>43470.7435629696</v>
+        <v>40586.0602000521</v>
       </c>
       <c r="E27" t="n">
-        <v>107268.632683097</v>
+        <v>108673.776342441</v>
       </c>
       <c r="F27" t="n">
-        <v>120719.053020035</v>
+        <v>118477.688755171</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1248,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>27631.2299743169</v>
+        <v>27203.8827584476</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>98530.3620118924</v>
+        <v>98213.0076857533</v>
       </c>
       <c r="C28" t="n">
-        <v>74238.8007662595</v>
+        <v>71081.2189787299</v>
       </c>
       <c r="D28" t="n">
-        <v>60985.11408871</v>
+        <v>56707.3106403569</v>
       </c>
       <c r="E28" t="n">
-        <v>124339.337456527</v>
+        <v>126270.671494015</v>
       </c>
       <c r="F28" t="n">
-        <v>142101.113840406</v>
+        <v>136081.844850133</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1280,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>25420.3620118924</v>
+        <v>25103.0076857533</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>93457.1905702814</v>
+        <v>92723.763838154</v>
       </c>
       <c r="C29" t="n">
-        <v>66730.5876463508</v>
+        <v>65791.3965837288</v>
       </c>
       <c r="D29" t="n">
-        <v>56133.2176861823</v>
+        <v>51041.3171253241</v>
       </c>
       <c r="E29" t="n">
-        <v>120381.411696577</v>
+        <v>121937.689077991</v>
       </c>
       <c r="F29" t="n">
-        <v>135701.538331435</v>
+        <v>135592.77652091</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1312,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>32272.1905702814</v>
+        <v>31538.763838154</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>90427.109689059</v>
+        <v>90105.7925752532</v>
       </c>
       <c r="C30" t="n">
-        <v>62345.2954545307</v>
+        <v>63804.0262476443</v>
       </c>
       <c r="D30" t="n">
-        <v>51272.4969763588</v>
+        <v>49306.1162481899</v>
       </c>
       <c r="E30" t="n">
-        <v>118102.736864269</v>
+        <v>120252.866864217</v>
       </c>
       <c r="F30" t="n">
-        <v>132321.723580866</v>
+        <v>133910.439833683</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1344,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>26837.109689059</v>
+        <v>26515.7925752532</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>86738.2247898581</v>
+        <v>86189.9274607237</v>
       </c>
       <c r="C31" t="n">
-        <v>59146.7916627366</v>
+        <v>58765.3704818685</v>
       </c>
       <c r="D31" t="n">
-        <v>46232.3030172308</v>
+        <v>43451.6605686706</v>
       </c>
       <c r="E31" t="n">
-        <v>115007.160373708</v>
+        <v>116664.426727926</v>
       </c>
       <c r="F31" t="n">
-        <v>127726.734857254</v>
+        <v>129796.782844015</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1376,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>18837.2247898581</v>
+        <v>18288.9274607237</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>84913.3844308019</v>
+        <v>84146.4182615721</v>
       </c>
       <c r="C32" t="n">
-        <v>57339.5887843524</v>
+        <v>57148.1915603742</v>
       </c>
       <c r="D32" t="n">
-        <v>41778.0761224405</v>
+        <v>40737.6035414862</v>
       </c>
       <c r="E32" t="n">
-        <v>113299.281854221</v>
+        <v>113367.757624834</v>
       </c>
       <c r="F32" t="n">
-        <v>128423.410706213</v>
+        <v>127657.394372007</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1408,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>13491.3844308019</v>
+        <v>12724.4182615721</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>81611.2457664021</v>
+        <v>81158.8886336886</v>
       </c>
       <c r="C33" t="n">
-        <v>52141.0338431774</v>
+        <v>52989.8944425896</v>
       </c>
       <c r="D33" t="n">
-        <v>39362.1196753327</v>
+        <v>39576.7091004973</v>
       </c>
       <c r="E33" t="n">
-        <v>111810.036113826</v>
+        <v>111100.345604386</v>
       </c>
       <c r="F33" t="n">
-        <v>125647.669039552</v>
+        <v>123519.288781036</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1440,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>12592.2457664021</v>
+        <v>12139.8886336886</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>77093.78098185</v>
+        <v>76893.5032043977</v>
       </c>
       <c r="C34" t="n">
-        <v>48185.2250373541</v>
+        <v>48344.67005842</v>
       </c>
       <c r="D34" t="n">
-        <v>34419.0967970403</v>
+        <v>31963.0628369117</v>
       </c>
       <c r="E34" t="n">
-        <v>107064.53376431</v>
+        <v>106234.654068261</v>
       </c>
       <c r="F34" t="n">
-        <v>122141.63959091</v>
+        <v>121820.69497655</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1472,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>18455.78098185</v>
+        <v>18255.5032043977</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>73902.0042353699</v>
+        <v>73838.2202258952</v>
       </c>
       <c r="C35" t="n">
-        <v>45203.0935429047</v>
+        <v>47124.1104342726</v>
       </c>
       <c r="D35" t="n">
-        <v>29373.5594149021</v>
+        <v>27061.5689448672</v>
       </c>
       <c r="E35" t="n">
-        <v>102721.645121219</v>
+        <v>104858.12936988</v>
       </c>
       <c r="F35" t="n">
-        <v>122071.31204553</v>
+        <v>117545.884349916</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1504,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>22777.0042353699</v>
+        <v>22713.2202258952</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>71097.0455185998</v>
+        <v>71764.8597430238</v>
       </c>
       <c r="C36" t="n">
-        <v>40200.0273084537</v>
+        <v>44211.1665218488</v>
       </c>
       <c r="D36" t="n">
-        <v>24441.4735781971</v>
+        <v>24604.1526796056</v>
       </c>
       <c r="E36" t="n">
-        <v>102487.017820081</v>
+        <v>103971.660952251</v>
       </c>
       <c r="F36" t="n">
-        <v>119897.421497018</v>
+        <v>116764.867128647</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1536,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>22745.0455185998</v>
+        <v>23412.8597430238</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>

--- a/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
+++ b/outcome/appendix/data/PHSMs/Tuberculosis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -427,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>93808.5747798785</v>
+        <v>93931.4318749212</v>
       </c>
       <c r="C2" t="n">
-        <v>87140.6374348858</v>
+        <v>86503.6388851971</v>
       </c>
       <c r="D2" t="n">
-        <v>82983.3242526647</v>
+        <v>84164.995267861</v>
       </c>
       <c r="E2" t="n">
-        <v>100615.727426273</v>
+        <v>100628.085712148</v>
       </c>
       <c r="F2" t="n">
-        <v>104348.201201336</v>
+        <v>103914.174809061</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +445,7 @@
         <v>67682</v>
       </c>
       <c r="I2" t="n">
-        <v>26126.5747798785</v>
+        <v>26249.4318749212</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>81938.6488356682</v>
+        <v>82216.7135200123</v>
       </c>
       <c r="C3" t="n">
-        <v>73242.9581934713</v>
+        <v>73738.9615971791</v>
       </c>
       <c r="D3" t="n">
-        <v>69222.7216396877</v>
+        <v>69207.3413648252</v>
       </c>
       <c r="E3" t="n">
-        <v>90567.4932912069</v>
+        <v>90475.1655511529</v>
       </c>
       <c r="F3" t="n">
-        <v>95908.2405362799</v>
+        <v>95854.9893804477</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +477,7 @@
         <v>44933</v>
       </c>
       <c r="I3" t="n">
-        <v>37005.6488356682</v>
+        <v>37283.7135200123</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>100432.941857624</v>
+        <v>100466.974104554</v>
       </c>
       <c r="C4" t="n">
-        <v>90733.4499395304</v>
+        <v>91179.8872300076</v>
       </c>
       <c r="D4" t="n">
-        <v>85949.7836003909</v>
+        <v>86621.5911346042</v>
       </c>
       <c r="E4" t="n">
-        <v>109856.546786503</v>
+        <v>110121.819573191</v>
       </c>
       <c r="F4" t="n">
-        <v>113489.420944162</v>
+        <v>115411.514841414</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +509,7 @@
         <v>73427</v>
       </c>
       <c r="I4" t="n">
-        <v>27005.9418576239</v>
+        <v>27039.9741045539</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>94560.8545689025</v>
+        <v>95349.9623712417</v>
       </c>
       <c r="C5" t="n">
-        <v>84576.9563051757</v>
+        <v>84281.0930316628</v>
       </c>
       <c r="D5" t="n">
-        <v>78786.6769134825</v>
+        <v>76875.5177974729</v>
       </c>
       <c r="E5" t="n">
-        <v>104523.802678805</v>
+        <v>107037.516780768</v>
       </c>
       <c r="F5" t="n">
-        <v>111314.901509281</v>
+        <v>112601.359011576</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +541,7 @@
         <v>85684</v>
       </c>
       <c r="I5" t="n">
-        <v>8876.8545689025</v>
+        <v>9665.96237124165</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>91776.4330886232</v>
+        <v>92146.9673657249</v>
       </c>
       <c r="C6" t="n">
-        <v>81471.1544090262</v>
+        <v>81073.4067676539</v>
       </c>
       <c r="D6" t="n">
-        <v>77464.388517755</v>
+        <v>75442.030185782</v>
       </c>
       <c r="E6" t="n">
-        <v>103017.45066909</v>
+        <v>104709.808668048</v>
       </c>
       <c r="F6" t="n">
-        <v>108514.661986138</v>
+        <v>109247.946536051</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +573,7 @@
         <v>83385</v>
       </c>
       <c r="I6" t="n">
-        <v>8391.43308862316</v>
+        <v>8761.96736572488</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>88250.8360727749</v>
+        <v>88434.8277645253</v>
       </c>
       <c r="C7" t="n">
-        <v>76084.9513502579</v>
+        <v>75004.6684334111</v>
       </c>
       <c r="D7" t="n">
-        <v>71350.922191625</v>
+        <v>68705.57270916</v>
       </c>
       <c r="E7" t="n">
-        <v>101351.240654538</v>
+        <v>101375.317787321</v>
       </c>
       <c r="F7" t="n">
-        <v>105311.604319254</v>
+        <v>106862.469515942</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +605,7 @@
         <v>84952</v>
       </c>
       <c r="I7" t="n">
-        <v>3298.83607277485</v>
+        <v>3482.82776452528</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>85576.6362143857</v>
+        <v>85717.831842526</v>
       </c>
       <c r="C8" t="n">
-        <v>73152.4334433586</v>
+        <v>73261.0338370031</v>
       </c>
       <c r="D8" t="n">
-        <v>68141.16851251</v>
+        <v>63895.6356015008</v>
       </c>
       <c r="E8" t="n">
-        <v>98068.1476345396</v>
+        <v>99371.2996876576</v>
       </c>
       <c r="F8" t="n">
-        <v>104493.350983359</v>
+        <v>105737.64973671</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +637,7 @@
         <v>76423</v>
       </c>
       <c r="I8" t="n">
-        <v>9153.6362143857</v>
+        <v>9294.83184252602</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>82706.0764225351</v>
+        <v>83212.8403763961</v>
       </c>
       <c r="C9" t="n">
-        <v>69291.4741737616</v>
+        <v>69146.0403076795</v>
       </c>
       <c r="D9" t="n">
-        <v>62880.4127624177</v>
+        <v>60773.7437435415</v>
       </c>
       <c r="E9" t="n">
-        <v>96430.9080054354</v>
+        <v>97073.4383526473</v>
       </c>
       <c r="F9" t="n">
-        <v>104498.520387003</v>
+        <v>105559.399932631</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,10 +669,10 @@
         <v>83101</v>
       </c>
       <c r="I9" t="n">
-        <v>-394.923577464899</v>
+        <v>111.84037639614</v>
       </c>
       <c r="J9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -683,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>78394.3887722991</v>
+        <v>78602.9790867665</v>
       </c>
       <c r="C10" t="n">
-        <v>63740.6465597466</v>
+        <v>63406.2427485394</v>
       </c>
       <c r="D10" t="n">
-        <v>57084.2976072263</v>
+        <v>54591.2126639985</v>
       </c>
       <c r="E10" t="n">
-        <v>93443.8370118266</v>
+        <v>93267.181802524</v>
       </c>
       <c r="F10" t="n">
-        <v>100525.555497602</v>
+        <v>99579.9644412213</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +701,7 @@
         <v>75409</v>
       </c>
       <c r="I10" t="n">
-        <v>2985.38877229911</v>
+        <v>3193.97908676651</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -715,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>74950.449661315</v>
+        <v>75622.9215893728</v>
       </c>
       <c r="C11" t="n">
-        <v>59748.4247868562</v>
+        <v>60516.6982655508</v>
       </c>
       <c r="D11" t="n">
-        <v>50381.8733843071</v>
+        <v>54082.4115277441</v>
       </c>
       <c r="E11" t="n">
-        <v>90254.699580736</v>
+        <v>89908.3127597121</v>
       </c>
       <c r="F11" t="n">
-        <v>98864.1306777181</v>
+        <v>98762.8605666366</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +733,7 @@
         <v>67843</v>
       </c>
       <c r="I11" t="n">
-        <v>7107.44966131504</v>
+        <v>7779.92158937284</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>72524.6815848434</v>
+        <v>72776.7327597802</v>
       </c>
       <c r="C12" t="n">
-        <v>55966.9509040672</v>
+        <v>56048.4716948529</v>
       </c>
       <c r="D12" t="n">
-        <v>48931.5163162043</v>
+        <v>48753.0857717412</v>
       </c>
       <c r="E12" t="n">
-        <v>89348.215911928</v>
+        <v>89677.2721980307</v>
       </c>
       <c r="F12" t="n">
-        <v>96758.7918118711</v>
+        <v>97210.8900981554</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +765,7 @@
         <v>69640</v>
       </c>
       <c r="I12" t="n">
-        <v>2884.68158484342</v>
+        <v>3136.73275978022</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>70477.1337675664</v>
+        <v>70025.6191436252</v>
       </c>
       <c r="C13" t="n">
-        <v>54067.6662707259</v>
+        <v>52143.6222703638</v>
       </c>
       <c r="D13" t="n">
-        <v>44816.1898471788</v>
+        <v>46007.8450430411</v>
       </c>
       <c r="E13" t="n">
-        <v>87816.0318298533</v>
+        <v>86755.6795241811</v>
       </c>
       <c r="F13" t="n">
-        <v>95188.0976723302</v>
+        <v>96222.5060587386</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +797,7 @@
         <v>64097</v>
       </c>
       <c r="I13" t="n">
-        <v>6380.13376756638</v>
+        <v>5928.61914362515</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>93194.872759437</v>
+        <v>92728.2343296304</v>
       </c>
       <c r="C14" t="n">
-        <v>75547.1985356324</v>
+        <v>74213.1254112527</v>
       </c>
       <c r="D14" t="n">
-        <v>63671.2041999541</v>
+        <v>66550.8653239005</v>
       </c>
       <c r="E14" t="n">
-        <v>111939.956750592</v>
+        <v>110388.232130664</v>
       </c>
       <c r="F14" t="n">
-        <v>119668.718015972</v>
+        <v>122089.674519596</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +829,7 @@
         <v>64813</v>
       </c>
       <c r="I14" t="n">
-        <v>28381.872759437</v>
+        <v>27915.2343296304</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>81111.1123089457</v>
+        <v>80422.5391357891</v>
       </c>
       <c r="C15" t="n">
-        <v>62288.2622112091</v>
+        <v>61484.2410507972</v>
       </c>
       <c r="D15" t="n">
-        <v>50778.2450659036</v>
+        <v>53060.2952439204</v>
       </c>
       <c r="E15" t="n">
-        <v>99545.706316135</v>
+        <v>99660.1749665397</v>
       </c>
       <c r="F15" t="n">
-        <v>110778.14816481</v>
+        <v>108113.061217942</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +861,7 @@
         <v>55425</v>
       </c>
       <c r="I15" t="n">
-        <v>25686.1123089457</v>
+        <v>24997.5391357891</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>99606.0602005119</v>
+        <v>98987.0284090038</v>
       </c>
       <c r="C16" t="n">
-        <v>81558.7979148275</v>
+        <v>80658.3251262906</v>
       </c>
       <c r="D16" t="n">
-        <v>66695.912378293</v>
+        <v>70114.4210566908</v>
       </c>
       <c r="E16" t="n">
-        <v>120711.337567193</v>
+        <v>118824.060274</v>
       </c>
       <c r="F16" t="n">
-        <v>128404.732389151</v>
+        <v>129435.011652515</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +893,7 @@
         <v>80803</v>
       </c>
       <c r="I16" t="n">
-        <v>18803.0602005119</v>
+        <v>18184.0284090038</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>94191.0993078739</v>
+        <v>94058.8191518284</v>
       </c>
       <c r="C17" t="n">
-        <v>74556.3125110041</v>
+        <v>75397.0001110207</v>
       </c>
       <c r="D17" t="n">
-        <v>62963.4497352186</v>
+        <v>64582.5074496428</v>
       </c>
       <c r="E17" t="n">
-        <v>114940.432791866</v>
+        <v>114249.489185748</v>
       </c>
       <c r="F17" t="n">
-        <v>125520.290127945</v>
+        <v>125243.409946472</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +925,7 @@
         <v>80548</v>
       </c>
       <c r="I17" t="n">
-        <v>13643.0993078739</v>
+        <v>13510.8191518284</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>91301.4570305984</v>
+        <v>90560.7788877897</v>
       </c>
       <c r="C18" t="n">
-        <v>71335.6529035927</v>
+        <v>70763.0983308977</v>
       </c>
       <c r="D18" t="n">
-        <v>58915.4204257393</v>
+        <v>60728.1306118799</v>
       </c>
       <c r="E18" t="n">
-        <v>112644.171932369</v>
+        <v>110476.765142685</v>
       </c>
       <c r="F18" t="n">
-        <v>126642.046165</v>
+        <v>124215.03554628</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +957,7 @@
         <v>75243</v>
       </c>
       <c r="I18" t="n">
-        <v>16058.4570305984</v>
+        <v>15317.7788877897</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>87508.1280563641</v>
+        <v>87135.4378757672</v>
       </c>
       <c r="C19" t="n">
-        <v>67176.4195203344</v>
+        <v>67241.6133741791</v>
       </c>
       <c r="D19" t="n">
-        <v>52199.8429723692</v>
+        <v>57806.9504241809</v>
       </c>
       <c r="E19" t="n">
-        <v>109893.403961423</v>
+        <v>108937.838446625</v>
       </c>
       <c r="F19" t="n">
-        <v>120235.251149064</v>
+        <v>119171.725842608</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +989,7 @@
         <v>73884</v>
       </c>
       <c r="I19" t="n">
-        <v>13624.1280563641</v>
+        <v>13251.4378757672</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>84827.3962719172</v>
+        <v>84619.7940767168</v>
       </c>
       <c r="C20" t="n">
-        <v>65236.2750507473</v>
+        <v>62313.2235395194</v>
       </c>
       <c r="D20" t="n">
-        <v>52366.856394096</v>
+        <v>51306.603752843</v>
       </c>
       <c r="E20" t="n">
-        <v>106871.155277433</v>
+        <v>107120.044411026</v>
       </c>
       <c r="F20" t="n">
-        <v>118342.376020943</v>
+        <v>114853.169953224</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1021,7 @@
         <v>76648</v>
       </c>
       <c r="I20" t="n">
-        <v>8179.39627191718</v>
+        <v>7971.79407671685</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>81599.0631883529</v>
+        <v>81650.2948866201</v>
       </c>
       <c r="C21" t="n">
-        <v>60389.3642550633</v>
+        <v>60304.3241505935</v>
       </c>
       <c r="D21" t="n">
-        <v>47204.0363046707</v>
+        <v>50159.3371988698</v>
       </c>
       <c r="E21" t="n">
-        <v>104416.168390422</v>
+        <v>103420.214907185</v>
       </c>
       <c r="F21" t="n">
-        <v>114204.197771157</v>
+        <v>114808.741323622</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1053,7 @@
         <v>67966</v>
       </c>
       <c r="I21" t="n">
-        <v>13633.0631883529</v>
+        <v>13684.2948866201</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>77384.0620934676</v>
+        <v>77539.7902678505</v>
       </c>
       <c r="C22" t="n">
-        <v>55220.1470235338</v>
+        <v>55805.5840650634</v>
       </c>
       <c r="D22" t="n">
-        <v>40297.9030279549</v>
+        <v>45143.1560541724</v>
       </c>
       <c r="E22" t="n">
-        <v>101060.915280857</v>
+        <v>101268.094697793</v>
       </c>
       <c r="F22" t="n">
-        <v>111457.889014531</v>
+        <v>111409.396107722</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1085,7 @@
         <v>67812</v>
       </c>
       <c r="I22" t="n">
-        <v>9572.06209346763</v>
+        <v>9727.79026785048</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>74119.1168580496</v>
+        <v>74461.4382463439</v>
       </c>
       <c r="C23" t="n">
-        <v>50438.3644505654</v>
+        <v>52652.3981781823</v>
       </c>
       <c r="D23" t="n">
-        <v>36047.040591904</v>
+        <v>41312.6805490641</v>
       </c>
       <c r="E23" t="n">
-        <v>100655.603091461</v>
+        <v>99322.9065906072</v>
       </c>
       <c r="F23" t="n">
-        <v>110835.912800423</v>
+        <v>111614.734141121</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1117,7 @@
         <v>61391</v>
       </c>
       <c r="I23" t="n">
-        <v>12728.1168580496</v>
+        <v>13070.4382463439</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>71555.8219952033</v>
+        <v>72071.8224786957</v>
       </c>
       <c r="C24" t="n">
-        <v>48960.1291283509</v>
+        <v>49156.3342683703</v>
       </c>
       <c r="D24" t="n">
-        <v>31556.1246624584</v>
+        <v>38304.87185929</v>
       </c>
       <c r="E24" t="n">
-        <v>96709.0427978285</v>
+        <v>98715.0963087268</v>
       </c>
       <c r="F24" t="n">
-        <v>106788.828289891</v>
+        <v>109304.25450518</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1149,7 @@
         <v>61753</v>
       </c>
       <c r="I24" t="n">
-        <v>9802.82199520331</v>
+        <v>10318.8224786957</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>68658.4285048297</v>
+        <v>69530.6509993738</v>
       </c>
       <c r="C25" t="n">
-        <v>44369.3830616783</v>
+        <v>46371.8378555504</v>
       </c>
       <c r="D25" t="n">
-        <v>30155.9761300143</v>
+        <v>32641.8427360606</v>
       </c>
       <c r="E25" t="n">
-        <v>92808.9050943725</v>
+        <v>93292.5983353156</v>
       </c>
       <c r="F25" t="n">
-        <v>104057.397083922</v>
+        <v>105022.808607202</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1181,7 @@
         <v>61788</v>
       </c>
       <c r="I25" t="n">
-        <v>6870.42850482972</v>
+        <v>7742.65099937381</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>91716.7560242062</v>
+        <v>92369.4888162361</v>
       </c>
       <c r="C26" t="n">
-        <v>66886.8613269766</v>
+        <v>67347.709316762</v>
       </c>
       <c r="D26" t="n">
-        <v>52334.9780978448</v>
+        <v>56642.6246206509</v>
       </c>
       <c r="E26" t="n">
-        <v>119003.774578208</v>
+        <v>118269.273503359</v>
       </c>
       <c r="F26" t="n">
-        <v>129631.139913734</v>
+        <v>133624.157286111</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1213,7 @@
         <v>61697</v>
       </c>
       <c r="I26" t="n">
-        <v>30019.7560242062</v>
+        <v>30672.4888162361</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>79799.8827584476</v>
+        <v>80227.2299743169</v>
       </c>
       <c r="C27" t="n">
-        <v>53975.6540624367</v>
+        <v>55915.512113248</v>
       </c>
       <c r="D27" t="n">
-        <v>40586.0602000521</v>
+        <v>43470.7435629696</v>
       </c>
       <c r="E27" t="n">
-        <v>108673.776342441</v>
+        <v>107268.632683097</v>
       </c>
       <c r="F27" t="n">
-        <v>118477.688755171</v>
+        <v>120719.053020035</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1245,7 @@
         <v>52596</v>
       </c>
       <c r="I27" t="n">
-        <v>27203.8827584476</v>
+        <v>27631.2299743169</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>98213.0076857533</v>
+        <v>98530.3620118924</v>
       </c>
       <c r="C28" t="n">
-        <v>71081.2189787299</v>
+        <v>74238.8007662595</v>
       </c>
       <c r="D28" t="n">
-        <v>56707.3106403569</v>
+        <v>60985.11408871</v>
       </c>
       <c r="E28" t="n">
-        <v>126270.671494015</v>
+        <v>124339.337456527</v>
       </c>
       <c r="F28" t="n">
-        <v>136081.844850133</v>
+        <v>142101.113840406</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1277,7 @@
         <v>73110</v>
       </c>
       <c r="I28" t="n">
-        <v>25103.0076857533</v>
+        <v>25420.3620118924</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>92723.763838154</v>
+        <v>93457.1905702814</v>
       </c>
       <c r="C29" t="n">
-        <v>65791.3965837288</v>
+        <v>66730.5876463508</v>
       </c>
       <c r="D29" t="n">
-        <v>51041.3171253241</v>
+        <v>56133.2176861823</v>
       </c>
       <c r="E29" t="n">
-        <v>121937.689077991</v>
+        <v>120381.411696577</v>
       </c>
       <c r="F29" t="n">
-        <v>135592.77652091</v>
+        <v>135701.538331435</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1309,7 @@
         <v>61185</v>
       </c>
       <c r="I29" t="n">
-        <v>31538.763838154</v>
+        <v>32272.1905702814</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>90105.7925752532</v>
+        <v>90427.109689059</v>
       </c>
       <c r="C30" t="n">
-        <v>63804.0262476443</v>
+        <v>62345.2954545307</v>
       </c>
       <c r="D30" t="n">
-        <v>49306.1162481899</v>
+        <v>51272.4969763588</v>
       </c>
       <c r="E30" t="n">
-        <v>120252.866864217</v>
+        <v>118102.736864269</v>
       </c>
       <c r="F30" t="n">
-        <v>133910.439833683</v>
+        <v>132321.723580866</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1341,7 @@
         <v>63590</v>
       </c>
       <c r="I30" t="n">
-        <v>26515.7925752532</v>
+        <v>26837.109689059</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>86189.9274607237</v>
+        <v>86738.2247898581</v>
       </c>
       <c r="C31" t="n">
-        <v>58765.3704818685</v>
+        <v>59146.7916627366</v>
       </c>
       <c r="D31" t="n">
-        <v>43451.6605686706</v>
+        <v>46232.3030172308</v>
       </c>
       <c r="E31" t="n">
-        <v>116664.426727926</v>
+        <v>115007.160373708</v>
       </c>
       <c r="F31" t="n">
-        <v>129796.782844015</v>
+        <v>127726.734857254</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1373,7 @@
         <v>67901</v>
       </c>
       <c r="I31" t="n">
-        <v>18288.9274607237</v>
+        <v>18837.2247898581</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>84146.4182615721</v>
+        <v>84913.3844308019</v>
       </c>
       <c r="C32" t="n">
-        <v>57148.1915603742</v>
+        <v>57339.5887843524</v>
       </c>
       <c r="D32" t="n">
-        <v>40737.6035414862</v>
+        <v>41778.0761224405</v>
       </c>
       <c r="E32" t="n">
-        <v>113367.757624834</v>
+        <v>113299.281854221</v>
       </c>
       <c r="F32" t="n">
-        <v>127657.394372007</v>
+        <v>128423.410706213</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1405,7 @@
         <v>71422</v>
       </c>
       <c r="I32" t="n">
-        <v>12724.4182615721</v>
+        <v>13491.3844308019</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>81158.8886336886</v>
+        <v>81611.2457664021</v>
       </c>
       <c r="C33" t="n">
-        <v>52989.8944425896</v>
+        <v>52141.0338431774</v>
       </c>
       <c r="D33" t="n">
-        <v>39576.7091004973</v>
+        <v>39362.1196753327</v>
       </c>
       <c r="E33" t="n">
-        <v>111100.345604386</v>
+        <v>111810.036113826</v>
       </c>
       <c r="F33" t="n">
-        <v>123519.288781036</v>
+        <v>125647.669039552</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1437,7 @@
         <v>69019</v>
       </c>
       <c r="I33" t="n">
-        <v>12139.8886336886</v>
+        <v>12592.2457664021</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>76893.5032043977</v>
+        <v>77093.78098185</v>
       </c>
       <c r="C34" t="n">
-        <v>48344.67005842</v>
+        <v>48185.2250373541</v>
       </c>
       <c r="D34" t="n">
-        <v>31963.0628369117</v>
+        <v>34419.0967970403</v>
       </c>
       <c r="E34" t="n">
-        <v>106234.654068261</v>
+        <v>107064.53376431</v>
       </c>
       <c r="F34" t="n">
-        <v>121820.69497655</v>
+        <v>122141.63959091</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1469,7 @@
         <v>58638</v>
       </c>
       <c r="I34" t="n">
-        <v>18255.5032043977</v>
+        <v>18455.78098185</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>73838.2202258952</v>
+        <v>73902.0042353699</v>
       </c>
       <c r="C35" t="n">
-        <v>47124.1104342726</v>
+        <v>45203.0935429047</v>
       </c>
       <c r="D35" t="n">
-        <v>27061.5689448672</v>
+        <v>29373.5594149021</v>
       </c>
       <c r="E35" t="n">
-        <v>104858.12936988</v>
+        <v>102721.645121219</v>
       </c>
       <c r="F35" t="n">
-        <v>117545.884349916</v>
+        <v>122071.31204553</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1501,7 @@
         <v>51125</v>
       </c>
       <c r="I35" t="n">
-        <v>22713.2202258952</v>
+        <v>22777.0042353699</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>71764.8597430238</v>
+        <v>71097.0455185998</v>
       </c>
       <c r="C36" t="n">
-        <v>44211.1665218488</v>
+        <v>40200.0273084537</v>
       </c>
       <c r="D36" t="n">
-        <v>24604.1526796056</v>
+        <v>24441.4735781971</v>
       </c>
       <c r="E36" t="n">
-        <v>103971.660952251</v>
+        <v>102487.017820081</v>
       </c>
       <c r="F36" t="n">
-        <v>116764.867128647</v>
+        <v>119897.421497018</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1533,7 @@
         <v>48352</v>
       </c>
       <c r="I36" t="n">
-        <v>23412.8597430238</v>
+        <v>22745.0455185998</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
